--- a/CSV/豪族统计表.xlsx
+++ b/CSV/豪族统计表.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="6880" windowWidth="24960" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="2060" yWindow="460" windowWidth="24960" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表4" sheetId="4" r:id="rId2"/>
+    <sheet name="工作表5" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,35 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
-  <si>
-    <t>名字</t>
-    <rPh sb="0" eb="1">
-      <t>mig'zi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源</t>
-    <rPh sb="0" eb="1">
-      <t>lai'yuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节</t>
-    <rPh sb="0" eb="1">
-      <t>zhang'jie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地点</t>
-    <rPh sb="0" eb="1">
-      <t>di'd</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="593">
   <si>
     <t>引文</t>
     <rPh sb="0" eb="1">
@@ -88,9 +62,6 @@
     <t>郭躬</t>
   </si>
   <si>
-    <t>陽翟</t>
-  </si>
-  <si>
     <t>46,36</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,21 +74,2185 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鞏</t>
-  </si>
-  <si>
     <t>67,57</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尹勳</t>
+  </si>
+  <si>
+    <t>附言</t>
+    <rPh sb="0" eb="1">
+      <t>fu'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章節</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來源</t>
+    <rPh sb="0" eb="1">
+      <t>lai'yaun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <rPh sb="0" eb="1">
+      <t>ming'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏郡</t>
+  </si>
+  <si>
+    <t>魏郡</t>
+    <rPh sb="0" eb="1">
+      <t>wei'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍谞</t>
+  </si>
+  <si>
+    <t>48,38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王渙</t>
+  </si>
+  <si>
+    <t>76,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明知法令，歷代衣冠，從溫補洛陽令，化行致賢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來自夾註。</t>
+    <rPh sb="0" eb="1">
+      <t>lai'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'zhu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋光未查到籍貫，按霍谞。</t>
+    <rPh sb="0" eb="1">
+      <t>song'gaung</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cha'dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'guan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>an'zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿弇，字伯昭，扶風茂陵人也...于时衣冠盛门坐纪罹祸灭者众矣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿弇</t>
+  </si>
+  <si>
+    <t>28,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馮衍</t>
+    <rPh sb="0" eb="1">
+      <t>feng'ayn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馮衍 字敬通，京兆杜陵人也。「注：衍以室家紛然之故，捐棄衣冠，側身山野，絕交游之路，杜仕宦之門，闔門不出，心專耕耘，以求衣食，何敢有功名之路哉！」</t>
+    <rPh sb="15" eb="16">
+      <t>zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢索詞</t>
+    <rPh sb="0" eb="1">
+      <t>jian'suo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣冠</t>
+    <rPh sb="0" eb="1">
+      <t>yi'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74,64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁紹</t>
+  </si>
+  <si>
+    <t>臯弘</t>
+  </si>
+  <si>
+    <t>37,27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳郡</t>
+  </si>
+  <si>
+    <t>「注：謝承書曰：「臯弘字奉卿，臯弘字奉卿　按：「奉」原譌「秦」，逕據汲本、殿本改正。吳郡人也。吳郡人也　按：張熷謂吳郡順帝時置，榮時乃會稽郡耳，「郡」當為「縣」。家代為冠族。少有英才，與桓榮相善。子徽，至司徒長史」也。」</t>
+    <rPh sb="1" eb="2">
+      <t>zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠族</t>
+    <rPh sb="0" eb="1">
+      <t>guan'jun</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韋著</t>
+  </si>
+  <si>
+    <t>53,43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京兆尹</t>
+  </si>
+  <si>
+    <t>京兆尹</t>
+    <rPh sb="0" eb="1">
+      <t>jign'zhao'yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京兆韋著、[五]著見韋彪傳。謝承書曰：「為三輔冠族。著少修節操，持京氏易、韓詩，博通術蓺。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊陟</t>
+  </si>
+  <si>
+    <t>羊陟字嗣祖，太山梁父人也。家世冠族。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃香</t>
+  </si>
+  <si>
+    <t>80,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來自夾註。</t>
+    <rPh sb="0" eb="1">
+      <t>lai'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃香字文彊，江夏安陸人也……「注：謝承書謝承書　按：「承」原譌「丞」，逕據汲本改正。：「香代為冠族，葉令況之子也。」」</t>
+    <rPh sb="15" eb="16">
+      <t>zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賈淑字子厚，林宗鄉人也。雖世有冠冕，而性險害，邑里患之。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賈淑</t>
+  </si>
+  <si>
+    <t>冠冕</t>
+    <rPh sb="0" eb="1">
+      <t>guan'mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王允字子師，太原祁人也。世仕州郡為冠蓋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠蓋</t>
+  </si>
+  <si>
+    <t>66,56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王允</t>
+  </si>
+  <si>
+    <t>陽球字方正，漁陽泉州人也。家世大姓冠蓋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽球</t>
+  </si>
+  <si>
+    <t>籍貫（縣）</t>
+    <rPh sb="0" eb="1">
+      <t>ji'gaun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>籍貫（郡）</t>
+    <rPh sb="0" eb="1">
+      <t>ji'guan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南陽郡</t>
+    <rPh sb="0" eb="1">
+      <t>nan'yang'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颍川郡</t>
+  </si>
+  <si>
+    <t>河南尹</t>
+  </si>
+  <si>
+    <t>河南尹</t>
+    <rPh sb="0" eb="1">
+      <t>he'nan'yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宛縣</t>
+    <rPh sb="1" eb="2">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽翟縣</t>
+    <rPh sb="0" eb="1">
+      <t>yang'di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞏縣</t>
+    <rPh sb="1" eb="2">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣漢縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣漢郡</t>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右扶風</t>
+    <rPh sb="0" eb="1">
+      <t>you'fu'feng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汝南郡</t>
+  </si>
+  <si>
+    <t>汝南郡</t>
+    <rPh sb="0" eb="1">
+      <t>ru'nan'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茂陵縣</t>
+    <rPh sb="0" eb="1">
+      <t>mao'ling</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜陵縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汝陽縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁甫國</t>
+    <rPh sb="1" eb="2">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰山郡</t>
+  </si>
+  <si>
+    <t>泰山郡</t>
+    <rPh sb="0" eb="1">
+      <t>tai'shan'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州名</t>
+  </si>
+  <si>
+    <t>寿春</t>
+  </si>
+  <si>
+    <t>绵竹</t>
+  </si>
+  <si>
+    <t>（全县数）</t>
+  </si>
+  <si>
+    <t>州治</t>
+  </si>
+  <si>
+    <t>郡名</t>
+  </si>
+  <si>
+    <t>县数</t>
+  </si>
+  <si>
+    <t>郡治</t>
+  </si>
+  <si>
+    <t>下辖县、邑、道、侯国名</t>
+  </si>
+  <si>
+    <t>司隶（106）</t>
+  </si>
+  <si>
+    <t>雒阳</t>
+  </si>
+  <si>
+    <t>河内郡</t>
+  </si>
+  <si>
+    <t>怀县</t>
+  </si>
+  <si>
+    <t>河东郡</t>
+  </si>
+  <si>
+    <t>安邑</t>
+  </si>
+  <si>
+    <t>弘农郡</t>
+  </si>
+  <si>
+    <t>弘农县</t>
+  </si>
+  <si>
+    <t>长安</t>
+  </si>
+  <si>
+    <t>左冯翊</t>
+  </si>
+  <si>
+    <t>高陵县</t>
+  </si>
+  <si>
+    <t>右扶风</t>
+  </si>
+  <si>
+    <t>槐里县</t>
+  </si>
+  <si>
+    <t>豫州（98）</t>
+  </si>
+  <si>
+    <t>谯县</t>
+  </si>
+  <si>
+    <t>阳翟县</t>
+  </si>
+  <si>
+    <t>平舆县</t>
+  </si>
+  <si>
+    <t>梁国</t>
+  </si>
+  <si>
+    <t>下邑</t>
+  </si>
+  <si>
+    <t>沛国</t>
+  </si>
+  <si>
+    <t>相县</t>
+  </si>
+  <si>
+    <t>陈国</t>
+  </si>
+  <si>
+    <t>陈县</t>
+  </si>
+  <si>
+    <t>鲁国</t>
+  </si>
+  <si>
+    <t>鲁县</t>
+  </si>
+  <si>
+    <t>冀州（104）</t>
+  </si>
+  <si>
+    <t>高邑</t>
+  </si>
+  <si>
+    <t>（鄗县）</t>
+  </si>
+  <si>
+    <t>邺</t>
+  </si>
+  <si>
+    <t>钜鹿郡</t>
+  </si>
+  <si>
+    <t>瘿陶县</t>
+  </si>
+  <si>
+    <t>常山国</t>
+  </si>
+  <si>
+    <t>元氏县</t>
+  </si>
+  <si>
+    <t>中山国</t>
+  </si>
+  <si>
+    <t>卢奴县</t>
+  </si>
+  <si>
+    <t>安平国</t>
+  </si>
+  <si>
+    <t>信都县</t>
+  </si>
+  <si>
+    <t>河间国</t>
+  </si>
+  <si>
+    <t>乐成县</t>
+  </si>
+  <si>
+    <t>清河国</t>
+  </si>
+  <si>
+    <t>甘陵县</t>
+  </si>
+  <si>
+    <t>赵国</t>
+  </si>
+  <si>
+    <t>邯郸</t>
+  </si>
+  <si>
+    <t>渤海郡</t>
+  </si>
+  <si>
+    <t>南皮</t>
+  </si>
+  <si>
+    <t>兖州（80）</t>
+  </si>
+  <si>
+    <t>昌邑</t>
+  </si>
+  <si>
+    <t>陈留郡</t>
+  </si>
+  <si>
+    <t>陈留县</t>
+  </si>
+  <si>
+    <t>东郡</t>
+  </si>
+  <si>
+    <t>濮阳</t>
+  </si>
+  <si>
+    <t>东平国</t>
+  </si>
+  <si>
+    <t>无盐县</t>
+  </si>
+  <si>
+    <t>任城国</t>
+  </si>
+  <si>
+    <t>任城县</t>
+  </si>
+  <si>
+    <t>奉高县</t>
+  </si>
+  <si>
+    <t>济北国</t>
+  </si>
+  <si>
+    <t>卢县</t>
+  </si>
+  <si>
+    <t>山阳郡</t>
+  </si>
+  <si>
+    <t>济阴郡</t>
+  </si>
+  <si>
+    <t>定陶县</t>
+  </si>
+  <si>
+    <t>徐州（62）</t>
+  </si>
+  <si>
+    <t>郯县</t>
+  </si>
+  <si>
+    <t>东海国</t>
+  </si>
+  <si>
+    <t>琅玡国</t>
+  </si>
+  <si>
+    <t>开阳县</t>
+  </si>
+  <si>
+    <t>彭城国</t>
+  </si>
+  <si>
+    <t>彭城</t>
+  </si>
+  <si>
+    <t>广陵郡</t>
+  </si>
+  <si>
+    <t>广陵县</t>
+  </si>
+  <si>
+    <t>下邳国</t>
+  </si>
+  <si>
+    <t>下邳</t>
+  </si>
+  <si>
+    <t>青州（62）</t>
+  </si>
+  <si>
+    <t>临淄</t>
+  </si>
+  <si>
+    <t>济南国</t>
+  </si>
+  <si>
+    <t>东平陵县</t>
+  </si>
+  <si>
+    <t>平原郡</t>
+  </si>
+  <si>
+    <t>平原县</t>
+  </si>
+  <si>
+    <t>乐安国</t>
+  </si>
+  <si>
+    <t>临济县</t>
+  </si>
+  <si>
+    <t>北海国</t>
+  </si>
+  <si>
+    <t>剧县</t>
+  </si>
+  <si>
+    <t>东莱郡</t>
+  </si>
+  <si>
+    <t>黄县</t>
+  </si>
+  <si>
+    <t>齐国</t>
+  </si>
+  <si>
+    <t>临菑</t>
+  </si>
+  <si>
+    <t>荆州（117）</t>
+  </si>
+  <si>
+    <t>汉寿</t>
+  </si>
+  <si>
+    <t>襄阳</t>
+  </si>
+  <si>
+    <t>南阳郡</t>
+  </si>
+  <si>
+    <t>南郡</t>
+  </si>
+  <si>
+    <t>江陵县</t>
+  </si>
+  <si>
+    <t>江夏郡</t>
+  </si>
+  <si>
+    <t>西陵县</t>
+  </si>
+  <si>
+    <t>零陵郡</t>
+  </si>
+  <si>
+    <t>泉陵县</t>
+  </si>
+  <si>
+    <t>桂阳郡</t>
+  </si>
+  <si>
+    <t>郴县</t>
+  </si>
+  <si>
+    <t>武陵郡</t>
+  </si>
+  <si>
+    <t>临沅县</t>
+  </si>
+  <si>
+    <t>长沙郡</t>
+  </si>
+  <si>
+    <t>临湘县</t>
+  </si>
+  <si>
+    <t>扬州（92）</t>
+  </si>
+  <si>
+    <t>历阳</t>
+  </si>
+  <si>
+    <t>合肥</t>
+  </si>
+  <si>
+    <t>九江郡</t>
+  </si>
+  <si>
+    <t>阴陵县</t>
+  </si>
+  <si>
+    <t>丹阳郡</t>
+  </si>
+  <si>
+    <t>宛陵县</t>
+  </si>
+  <si>
+    <t>庐江郡</t>
+  </si>
+  <si>
+    <t>舒县</t>
+  </si>
+  <si>
+    <t>会稽郡</t>
+  </si>
+  <si>
+    <t>山阴县</t>
+  </si>
+  <si>
+    <t>吴郡</t>
+  </si>
+  <si>
+    <t>吴县</t>
+  </si>
+  <si>
+    <t>豫章郡</t>
+  </si>
+  <si>
+    <t>南昌</t>
+  </si>
+  <si>
+    <t>益州（114）</t>
+  </si>
+  <si>
+    <t>雒县</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>汉中郡</t>
+  </si>
+  <si>
+    <t>南郑</t>
+  </si>
+  <si>
+    <t>巴郡</t>
+  </si>
+  <si>
+    <t>江州县</t>
+  </si>
+  <si>
+    <t>广汉郡</t>
+  </si>
+  <si>
+    <t>蜀郡</t>
+  </si>
+  <si>
+    <t>犍为郡</t>
+  </si>
+  <si>
+    <t>武阳县</t>
+  </si>
+  <si>
+    <t>牂牁郡</t>
+  </si>
+  <si>
+    <t>故且兰县</t>
+  </si>
+  <si>
+    <t>越巂郡</t>
+  </si>
+  <si>
+    <t>邛都县</t>
+  </si>
+  <si>
+    <t>益州郡</t>
+  </si>
+  <si>
+    <t>滇池县</t>
+  </si>
+  <si>
+    <t>永昌郡</t>
+  </si>
+  <si>
+    <t>不韦县</t>
+  </si>
+  <si>
+    <t>广汉属国</t>
+  </si>
+  <si>
+    <t>阴平道</t>
+  </si>
+  <si>
+    <t>蜀郡属国</t>
+  </si>
+  <si>
+    <t>汉嘉县</t>
+  </si>
+  <si>
+    <t>犍为属国</t>
+  </si>
+  <si>
+    <t>朱提县</t>
+  </si>
+  <si>
+    <t>凉州（98）</t>
+  </si>
+  <si>
+    <t>陇县</t>
+  </si>
+  <si>
+    <t>陇西郡</t>
+  </si>
+  <si>
+    <t>狄道</t>
+  </si>
+  <si>
+    <t>汉阳郡</t>
+  </si>
+  <si>
+    <t>冀县</t>
+  </si>
+  <si>
+    <t>武都郡</t>
+  </si>
+  <si>
+    <t>下辨县</t>
+  </si>
+  <si>
+    <t>金城郡</t>
+  </si>
+  <si>
+    <t>允吾县</t>
+  </si>
+  <si>
+    <t>安定郡</t>
+  </si>
+  <si>
+    <t>临泾县</t>
+  </si>
+  <si>
+    <t>北地郡</t>
+  </si>
+  <si>
+    <t>富平县</t>
+  </si>
+  <si>
+    <t>武威郡</t>
+  </si>
+  <si>
+    <t>姑臧县</t>
+  </si>
+  <si>
+    <t>张掖郡</t>
+  </si>
+  <si>
+    <t>觻得县</t>
+  </si>
+  <si>
+    <t>酒泉郡</t>
+  </si>
+  <si>
+    <t>禄福县</t>
+  </si>
+  <si>
+    <t>敦煌郡</t>
+  </si>
+  <si>
+    <t>敦煌县</t>
+  </si>
+  <si>
+    <t>张掖属国</t>
+  </si>
+  <si>
+    <t>候官</t>
+  </si>
+  <si>
+    <t>张掖居延属国</t>
+  </si>
+  <si>
+    <t>居延县</t>
+  </si>
+  <si>
+    <t>并州（98）</t>
+  </si>
+  <si>
+    <t>晋阳</t>
+  </si>
+  <si>
+    <t>上党郡</t>
+  </si>
+  <si>
+    <t>长子县</t>
+  </si>
+  <si>
+    <t>太原郡</t>
+  </si>
+  <si>
+    <t>上郡</t>
+  </si>
+  <si>
+    <t>肤施县</t>
+  </si>
+  <si>
+    <t>西河郡</t>
+  </si>
+  <si>
+    <t>离石县</t>
+  </si>
+  <si>
+    <t>五原郡</t>
+  </si>
+  <si>
+    <t>九原县</t>
+  </si>
+  <si>
+    <t>云中郡</t>
+  </si>
+  <si>
+    <t>云中县</t>
+  </si>
+  <si>
+    <t>定襄郡</t>
+  </si>
+  <si>
+    <t>善无县</t>
+  </si>
+  <si>
+    <t>雁门郡</t>
+  </si>
+  <si>
+    <t>阴馆县</t>
+  </si>
+  <si>
+    <t>朔方郡</t>
+  </si>
+  <si>
+    <t>临戎县</t>
+  </si>
+  <si>
+    <t>幽州（90）</t>
+  </si>
+  <si>
+    <t>蓟县</t>
+  </si>
+  <si>
+    <t>涿郡</t>
+  </si>
+  <si>
+    <t>涿县</t>
+  </si>
+  <si>
+    <t>广阳郡</t>
+  </si>
+  <si>
+    <t>代郡</t>
+  </si>
+  <si>
+    <t>高柳县</t>
+  </si>
+  <si>
+    <t>上谷郡</t>
+  </si>
+  <si>
+    <t>沮阳县</t>
+  </si>
+  <si>
+    <t>渔阳郡</t>
+  </si>
+  <si>
+    <t>渔阳县</t>
+  </si>
+  <si>
+    <t>右北平郡</t>
+  </si>
+  <si>
+    <t>土垠县</t>
+  </si>
+  <si>
+    <t>辽西郡</t>
+  </si>
+  <si>
+    <t>阳乐县</t>
+  </si>
+  <si>
+    <t>辽东郡</t>
+  </si>
+  <si>
+    <t>襄平县</t>
+  </si>
+  <si>
+    <t>玄菟郡</t>
+  </si>
+  <si>
+    <t>高句骊县</t>
+  </si>
+  <si>
+    <t>乐浪郡</t>
+  </si>
+  <si>
+    <t>朝鲜县</t>
+  </si>
+  <si>
+    <t>辽东属国</t>
+  </si>
+  <si>
+    <t>昌辽县</t>
+  </si>
+  <si>
+    <t>交州（56）</t>
+  </si>
+  <si>
+    <t>龙编</t>
+  </si>
+  <si>
+    <t>南海郡</t>
+  </si>
+  <si>
+    <t>番禺县</t>
+  </si>
+  <si>
+    <t>苍梧郡</t>
+  </si>
+  <si>
+    <t>广信县</t>
+  </si>
+  <si>
+    <t>郁林郡</t>
+  </si>
+  <si>
+    <t>布山县</t>
+  </si>
+  <si>
+    <t>合浦郡</t>
+  </si>
+  <si>
+    <t>合浦县</t>
+  </si>
+  <si>
+    <t>交趾郡</t>
+  </si>
+  <si>
+    <t>龙编县</t>
+  </si>
+  <si>
+    <t>九真郡</t>
+  </si>
+  <si>
+    <t>胥浦县</t>
+  </si>
+  <si>
+    <t>日南郡</t>
+  </si>
+  <si>
+    <t>西卷县</t>
+  </si>
+  <si>
+    <t>雒阳县、河南县、梁县、荥阳县、卷县、原武县、阳武县、中牟县、开封县、菀陵县、平阴县、谷城县、缑氏县、巩县、成睾县、京县、密县、新城县、匽师县、新郑县、平县</t>
+  </si>
+  <si>
+    <t>怀县、河阳县、轵县、波县、沁水县、野王县、温县、州县、平睾县、山阳邑、武德县、获嘉国、修武县、共县、汲县、朝歌县、荡阴县、林虑县</t>
+  </si>
+  <si>
+    <t>安邑、杨县、平阳国、临汾县、汾阴县、蒲坂县、大阳县、解县、皮氏县、闻喜邑、绛邑、永安县、河北县、猗氏县、东垣县、襄陵县、北屈县、蒲子县、濩泽国、端氏县</t>
+  </si>
+  <si>
+    <t>弘农县、陕县、黾池县、新安县、宜阳县、陆浑县、卢氏县、湖县、华阴县</t>
+  </si>
+  <si>
+    <t>长安县、霸陵县、杜陵县、郑县、新丰县、蓝田县、长陵县、商县、上雒国、阳陵县</t>
+  </si>
+  <si>
+    <t>高陵县、池阳县、云阳县、祋祤县、频阳县、万年县、莲勺县、重泉县、临晋县、郃阳县、夏阳县、衙县、粟邑</t>
+  </si>
+  <si>
+    <t>槐里县、安陵县、平陵县、茂陵县、鄠县、郿县、武功县、陈仓县、汧县、渝麋国、雍县、栒邑、美阳县、漆县、杜阳县</t>
+  </si>
+  <si>
+    <t>阳翟县、郏县、襄城县、昆阳县、定陵县、舞阳邑、郾县、临颍县、颍阳县、颍阴县、许县、新汲县、焉陵县、长社县、阳城县、父城县、轮氏县</t>
+  </si>
+  <si>
+    <t>平舆县、新阳国、西平县、上蔡县、南顿县、汝阴县、汝阳县、新息国、北宜春县、㶏强国、灈阳县、期思县、阳安县、项县、西华县、细阳县、安城国、吴房县、鲖阳国、慎阳县、慎县、新蔡县、安阳国、富波国、宜禄县、郎陵国、弋阳国、召陵县、征羌国、思善国、宋国、褒信国、原鹿国、定颍国、固始国、山桑国、城父县</t>
+  </si>
+  <si>
+    <t>下邑、睢阳县、虞县、砀山县、蒙县、谷熟县、鄢县、甯陵县、薄县</t>
+  </si>
+  <si>
+    <t>相县、萧县、沛县、丰县、酂县、穀阳县、谯县、洨县、蕲县、铚县、郸县、建平县、临睢县、竹邑国、公丘县、龙亢县、向县、符离县、虹县、太丘县、杼秋县</t>
+  </si>
+  <si>
+    <t>陈县、阳夏县、甯平县、苦县、柘县、新平县、扶乐县、武平县、长平县</t>
+  </si>
+  <si>
+    <t>鲁县、驺县、蕃县、薛县、卞县、汶阳县</t>
+  </si>
+  <si>
+    <t>邺县、繁阳县、内黄县、魏县、元城县、黎阳县、阴安邑、馆陶县、清渊县、平恩县、沙国、斥丘县、武安县、曲梁国、梁期县</t>
+  </si>
+  <si>
+    <t>瘿陶县、钜鹿县、杨氏县、鄡县、下曲阳县、任县、南和县、广平县、斥章县、广宗县、曲周县、列人县、广年县、平乡县、南䜌县</t>
+  </si>
+  <si>
+    <t>元氏县、高邑、都乡国、南行唐县、房子县、平棘县、栾城县、九门县、灵寿县、蒲吾县、井陉县、真定县、上艾县</t>
+  </si>
+  <si>
+    <t>卢奴县、北平县、毋极县、新市县、望都县、唐县、安国县、安喜县、汉昌县、蠡吾国、上曲阳县、蒲阴县、广昌县</t>
+  </si>
+  <si>
+    <t>信都县、阜城县、南宫县、扶柳县、下博县、武邑、观津县、堂阳县、武遂县、饶阳县、安平县、南深泽县、经县</t>
+  </si>
+  <si>
+    <t>乐成县、弓高县、易县、武垣县、中水县、鄚县、高阳县、文安县、束州县、成平县、东平舒县</t>
+  </si>
+  <si>
+    <t>甘陵县、贝丘县、东武城县、鄃县、灵县、绎幕县、广川县</t>
+  </si>
+  <si>
+    <t>邯郸县、易阳县、襄国县、柏人县、中丘县</t>
+  </si>
+  <si>
+    <t>南皮县、高城国、重合国、浮阳国、东光县、章武县、阳信县、修县</t>
+  </si>
+  <si>
+    <t>陈留县、浚仪县、尉氏县、雍丘县、襄邑、外黄县、小黄县、东昏县、济阳县、平丘县、封丘县、酸枣县、长垣国、己吾县、考城县、圉县、扶沟县</t>
+  </si>
+  <si>
+    <t>濮阳县、燕县、白马县、顿丘县、东阿县、东武阳县、范县、临邑、博平县、聊城县、发干县、乐平国、阳平国、卫国、谷城县</t>
+  </si>
+  <si>
+    <t>无盐县、东平陆县、富成县、鄣县、寿张县、须昌县、宁阳县</t>
+  </si>
+  <si>
+    <t>任城县、亢父县、樊县</t>
+  </si>
+  <si>
+    <t>奉高县、博县、梁甫国、钜平国、嬴县、山茌国、莱芜县、盖县、南武阳国、南城县、费国、牟县</t>
+  </si>
+  <si>
+    <t>卢县、蛇丘县、成县、茌平县、刚县</t>
+  </si>
+  <si>
+    <t>昌邑、东缗县、钜野县、高平国、湖陆县、南平阳国、方与县、瑕丘县、金乡县、防东县</t>
+  </si>
+  <si>
+    <t>定陶县、冤句县、成阳县、乘氏国、句阳县、鄄城县、离狐县、廪丘县、单父国、成武县、己氏县</t>
+  </si>
+  <si>
+    <t>郯县、兰陵县、戚县、朐县、襄贲县、昌虑县、氶县、阴平县、利城县、合乡县、祝其县、厚丘县、赣榆县</t>
+  </si>
+  <si>
+    <t>开阳县、东武县、琅邪县、东莞县、西海县、诸县、莒县、东安县、阳都县、临沂县、即丘国、缯国、姑幕县</t>
+  </si>
+  <si>
+    <t>彭城县、武原县、傅阳县、吕县、留县、梧县、菑丘县、广戚县</t>
+  </si>
+  <si>
+    <t>广陵县、江都县、高邮县、平安县、凌县、东阳县、射阳县、盐渎县、舆国、堂邑、海西县、海陵县</t>
+  </si>
+  <si>
+    <t>下邳县、徐县、僮国、睢陵县、下相县、淮阴县、淮浦县、盱台县、高山县、潘旌县、淮陵县、取虑县、东城县、曲阳国、司吾国、良成县、夏丘县</t>
+  </si>
+  <si>
+    <t>东平陵县、著县、于陵县、台县、菅县、土鼓县、梁邹县、邹平县、东朝阳县、历城县</t>
+  </si>
+  <si>
+    <t>平原县、高唐县、般县、鬲国、祝阿县、乐陵县、漯阴县、安德国、厌次县</t>
+  </si>
+  <si>
+    <t>临济县、千乘县、高宛县、乐安县、博昌县、蓼城国、利县、益国、寿光县</t>
+  </si>
+  <si>
+    <t>剧县、营陵县、平寿县、都昌县、安丘县、淳于县、平昌国、朱虚国、东安平县、高密国、昌安国、夷安国、胶东国、即墨国、壮武县、下密县、挺县、观阳县</t>
+  </si>
+  <si>
+    <t>黄县、牟平县、惤国、曲成国、掖国、当利国、东牟国、昌阳县、卢乡县、长广县、黔陬国、葛卢县、不其国</t>
+  </si>
+  <si>
+    <t>临菑县、西安县、昌国县、临朐县、广县、般阳县</t>
+  </si>
+  <si>
+    <t>宛县、冠军邑、叶县、新野县、章陵县、西鄂县、雉县、鲁阳县、犨县、堵阳县、博望县、舞阴邑、比阳县、复阳国、平氏县、棘阳县、湖阳邑、随县、育阳邑、涅阳县、阴县、酂县、邓县、山都国、郦国、穰县、朝阳县、蔡阳国、安众国、筑阳国、武当县、顺阳国、成都县、襄乡县、南乡县、丹水县、析县</t>
+  </si>
+  <si>
+    <t>江陵县、巫县、秭归县、中卢国、编县、当阳县、华容国、襄阳县、邔国、宜城国、鄀国、临沮国、枝江国、夷道、夷陵县、州陵县、佷山县</t>
+  </si>
+  <si>
+    <t>西陵县、西阳县、轪国、鄳县、竟陵国、云杜县、沙羡县、邾县、下雉县、蕲春国、鄂县、平春国、南新市国、安陆县</t>
+  </si>
+  <si>
+    <t>泉陵县、零陵县、营道、营浦县、泠道、洮阳县、都梁县、夫夷国、始安国、重安国、湘乡县、昭阳国、烝阳国</t>
+  </si>
+  <si>
+    <t>郴县、便县、耒阳县、阴山县、南平县、临武县、桂阳县、含洭县、浈阳县、曲江县、汉宁县</t>
+  </si>
+  <si>
+    <t>临沅县、汉寿县、孱陵县、零阳县、充县、沅陵县、辰阳县、酉阳县、迁陵县、镡成县、沅南县、作唐县</t>
+  </si>
+  <si>
+    <t>临湘县、攸县、茶陵县、安城县、酃县、湘南国、连道、昭陵县、益阳县、下隽县、罗县、醴陵县、容陵县</t>
+  </si>
+  <si>
+    <t>阴陵县、寿春县、浚遒县、成德县、西曲阳县、合肥国、历阳国、当涂县、全椒县、锺离国、阜陵县、下蔡县、平阿县、义成县</t>
+  </si>
+  <si>
+    <t>宛陵县、溧阳县、丹阳县、故鄣县、於潜县、泾县、歙县、黝县、陵阳县、芜湖县、秣陵县、湖熟国、句容县、江乘县、春谷县、石城县</t>
+  </si>
+  <si>
+    <t>舒县、雩娄国、寻阳县、灊县、临湖国、龙舒国、襄安县、皖县、居巢国、六安县、蓼国、安丰县、阳泉国、安风国</t>
+  </si>
+  <si>
+    <t>山阴县、鄮县、乌伤县、诸暨县、余暨县、太末县、上虞县、剡县、余姚县、句章县、鄞县、章安县、永宁县、东部国、冶县</t>
+  </si>
+  <si>
+    <t>吴县、海盐县、乌程县、余杭县、毗陵县、丹徒县、曲阿县、由拳县、钱唐县、富春县、阳羡邑、无锡国、娄县</t>
+  </si>
+  <si>
+    <t>南昌县、建城县、新淦县、宜春县、庐陵县、赣县、雩都县、南野县、南城县、鄱阳县、历陵县、余汗县、鄡阳县、彭泽县、柴桑县、艾县、海昏国、平都国、石阳县、临汝县、建昌县</t>
+  </si>
+  <si>
+    <t>南郑县、成固县、西城县、褒中县、沔阳县、安阳县、锡县、上庸县、房陵县</t>
+  </si>
+  <si>
+    <t>江州县、宕渠县、朐䏰县、阆中县、鱼复县、临江县、枳县、涪陵县、垫江县、安汉县、平都县、充国县、宣汉县、汉昌县</t>
+  </si>
+  <si>
+    <t>雒县、新都县、绵竹县、什邡县、涪县、梓潼县、白水县、葭萌县、郪县、广汉县、德阳县</t>
+  </si>
+  <si>
+    <t>成都县、郫县、江原县、繁县、广都县、临邛县、湔氏道、汶江道、蚕陵县、广柔县、绵虒道</t>
+  </si>
+  <si>
+    <t>武阳县、资中县、牛鞞县、南安县、僰道、江阳县、符节县、南广县、汉安县</t>
+  </si>
+  <si>
+    <t>故且兰县、平夷县、鄨县、毋敛县、谈指县、夜郎县、同并县、谈稿县[注 3]、漏江县、毋单县、宛温县、镡封县、漏卧县、都梦县（句町县）、进乘县[注 4]、西随县</t>
+  </si>
+  <si>
+    <t>邛都县、遂久县、灵关道、台登县、青蛉县、卑水县、三缝县、会无县、定莋县、阐县、苏示县、大莋县、莋秦县、姑复县</t>
+  </si>
+  <si>
+    <t>滇池县、胜休县、俞元县、律高县、贲古县、毋棳县、建伶县、谷昌县、牧靡县、味县、昆泽县、同濑县、同劳县、双柏县、连然县、梇栋县、秦臧县</t>
+  </si>
+  <si>
+    <t>不韦县、巂唐县、比苏县、楪榆县、邪龙县、云南县、哀牢县、博南县</t>
+  </si>
+  <si>
+    <t>阴平道、甸氐道、刚氐道</t>
+  </si>
+  <si>
+    <t>汉嘉县、严道、徙县、旄牛县</t>
+  </si>
+  <si>
+    <t>朱提县、汉阳县</t>
+  </si>
+  <si>
+    <t>狄道、安故县、氐道、首阳县、大夏县、襄武县、临洮县、枹罕县、白石县、鄣县、河关县</t>
+  </si>
+  <si>
+    <t>冀县、望垣县、阿阳县、略阳县、勇士县、成纪县、陇县、豲道、兰干县、平襄县、显亲县、上邽县、西县</t>
+  </si>
+  <si>
+    <t>下辨县、武都道、上禄县、故道、河池县、沮县、羌道</t>
+  </si>
+  <si>
+    <t>允吾县、浩亹县、令居县、枝阳县、金城县、榆中县、临羌县、破羌县、安夷县、允街县</t>
+  </si>
+  <si>
+    <t>临泾县、高平县、朝那县、乌枝县、三水县、阴槃县、彭阳县、鹑觚县</t>
+  </si>
+  <si>
+    <t>富平县、泥阳县、弋居县、廉县、参䜌县、灵州县</t>
+  </si>
+  <si>
+    <t>姑臧县、张掖县、武威县、休屠县、揟次县、鸶鸟县、朴𠟼县、媪围县、宣威县、苍松县、鹯阴县、祖厉县、显美县、左骑千人官</t>
+  </si>
+  <si>
+    <t>觻得县、昭武县、删丹县、氐池县、屋兰县、日勒县、骊靬县、番和县</t>
+  </si>
+  <si>
+    <t>禄福县、表氏县、乐涫县、玉门县、会水县、沙头县、安弥县、干齐县、延寿县</t>
+  </si>
+  <si>
+    <t>敦煌县、冥安县、效谷县、渊泉县、广至县、龙勒县</t>
+  </si>
+  <si>
+    <t>候官、左骑县、千人县、司马官、千人官</t>
+  </si>
+  <si>
+    <t>长子县、屯留县、铜鞮县、沾县、涅县、襄垣县、壶关县、泫氏县、高都县、潞县、陭氏县、阳阿国、谷远县</t>
+  </si>
+  <si>
+    <t>晋阳县、界休县、榆次县、中都县、于离县、兹氏县、狼孟县、邬县、盂县、平陶县、京陵县、阳曲县、大陵县、祁县、虑虒县、阳邑</t>
+  </si>
+  <si>
+    <t>肤施县、白土县、漆垣县、奢延县、雕阴县、桢林县、定阳县、高奴县、龟兹国、候官县</t>
+  </si>
+  <si>
+    <t>离石县、平定县、美稷县、乐街县、中阳县、皋狼县、平周县、平陆县、益兰县、圜阴县、蔺县、圜阳县、广衍县</t>
+  </si>
+  <si>
+    <t>九原县、五原县、临沃县、文国县、河阴县、武都县、宜梁县、曼柏县、成宜县、西安阳县</t>
+  </si>
+  <si>
+    <t>云中县、咸阳县、箕陵县、沙陵县、沙南县、北舆县、武泉县、原阳县、定襄县、成乐县、武进县</t>
+  </si>
+  <si>
+    <t>善无县、桐过县、武成县、骆县、中陵县</t>
+  </si>
+  <si>
+    <t>阴馆县、繁峙县、楼烦县、武州县、汪陶县、剧阳县、崞县、平城县、埒县、马邑、卤城县、广武县、原平县、彊阴县</t>
+  </si>
+  <si>
+    <t>临戎县、三封县、朔方县、沃野县、广牧县、大城县</t>
+  </si>
+  <si>
+    <t>涿县、遒国、故安县、范阳国、良乡县、北新城县、方城县</t>
+  </si>
+  <si>
+    <t>蓟县、广阳县、昌平县、军都县、安次县</t>
+  </si>
+  <si>
+    <t>高柳县、桑乾县、道人县、当城县、马城县、班氏县、狋氏县、北平邑、东安阳县、平舒县、代县</t>
+  </si>
+  <si>
+    <t>沮阳县、潘县、甯县、广甯县、居庸县、雊瞀县、涿鹿县、下落县</t>
+  </si>
+  <si>
+    <t>渔阳县、狐奴县、潞县、雍奴县、泉州县、平谷县、安乐县、厗奚县、犷平县</t>
+  </si>
+  <si>
+    <t>土垠县、徐无县、俊靡县、无终县</t>
+  </si>
+  <si>
+    <t>阳乐县、海阳县、令支县、肥如县、临渝县</t>
+  </si>
+  <si>
+    <t>襄平县、新昌县、无虑县、望平县、辽队县、安市县、平郭县、西安平县、汶县、番汗县、沓氏县</t>
+  </si>
+  <si>
+    <t>高句骊县、西盖马县、上殷台县、高显县、候城县、辽阳县</t>
+  </si>
+  <si>
+    <t>朝鲜县、𧦦邯县、浿水县、含资县、占蝉县、遂城县、增地县、带方县、驷望县、海冥县、列口县、长岑县、屯有县、昭明县、镂方县、提奚县、浑弥县、乐都县</t>
+  </si>
+  <si>
+    <t>昌辽县、宾徒县、徒河县、扶黎县、险渎县、房县</t>
+  </si>
+  <si>
+    <t>番禺县、博罗县、中宿县、龙川县、四会县、揭阳县、增城县</t>
+  </si>
+  <si>
+    <t>广信县、谢沐县、高要县、封阳县、临贺县、端谿县、冯乘县、富川县、荔浦县、猛陵县、鄣平县</t>
+  </si>
+  <si>
+    <t>布山县、安广县、阿林县、广郁县、中溜县、桂林县、潭中县、临尘县、定周县、增食县、领方县</t>
+  </si>
+  <si>
+    <t>合浦县、徐闻县、高凉县、临允县、朱崖县</t>
+  </si>
+  <si>
+    <t>龙编县、羸𨻻县、安定县、苟漏县、麊泠县、曲阳县、北带县、稽徐县、西于县、朱䳒县、封谿县、望海县</t>
+  </si>
+  <si>
+    <t>胥浦县、居风县、咸懽县、无功县、无编县</t>
+  </si>
+  <si>
+    <t>西卷县、硃吾县、卢容县、象林县、比景县</t>
+  </si>
+  <si>
+    <t>州名	州治	郡名	縣數	郡治	下轄縣、邑、道、侯國名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（全縣數）					</t>
+  </si>
+  <si>
+    <t>司隷（106）	雒陽	河南尹	21	雒陽	雒陽縣、河南縣、梁縣、滎陽縣、卷縣、原武縣、陽武縣、中牟縣、開封縣、菀陵縣、平陰縣、谷城縣、緱氏縣、鞏縣、成睪縣、京縣、密縣、新城縣、匽師縣、新鄭縣、平縣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">河內郡	18	懷縣	懷縣、河陽縣、軹縣、波縣、沁水縣、野王縣、溫縣、州縣、平睪縣、山陽邑、武德縣、獲嘉國、修武縣、共縣、汲縣、朝歌縣、蕩陰縣、林慮縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">河東郡	20	安邑	安邑、楊縣、平陽國、臨汾縣、汾陰縣、蒲阪縣、大陽縣、解縣、皮氏縣、聞喜邑、絳邑、永安縣、河北縣、猗氏縣、東垣縣、襄陵縣、北屈縣、蒲子縣、濩澤國、端氏縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">弘農郡	9	弘農縣	弘農縣、陝縣、黽池縣、新安縣、宜陽縣、陸渾縣、盧氏縣、湖縣、華陰縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">京兆尹	10	長安	長安縣、霸陵縣、杜陵縣、鄭縣、新豐縣、藍田縣、長陵縣、商縣、上雒國、陽陵縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左馮翊	13	高陵縣	高陵縣、池陽縣、雲陽縣、祋祤縣、頻陽縣、萬年縣、蓮勺縣、重泉縣、臨晉縣、郃陽縣、夏陽縣、衙縣、粟邑		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">右扶風	15	槐裡縣	槐裡縣、安陵縣、平陵縣、茂陵縣、鄠縣、郿縣、武功縣、陳倉縣、汧縣、渝麋國、雍縣、栒邑、美陽縣、漆縣、杜陽縣		</t>
+  </si>
+  <si>
+    <t>豫州（98）	譙縣	潁川郡	17	陽翟縣	陽翟縣、郟縣、襄城縣、昆陽縣、定陵縣、舞陽邑、郾縣、臨潁縣、潁陽縣、潁陰縣、許縣、新汲縣、焉陵縣、長社縣、陽城縣、父城縣、輪氏縣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">汝南郡	37	平輿縣	平輿縣、新陽國、西平縣、上蔡縣、南頓縣、汝陰縣、汝陽縣、新息國、北宜春縣、㶏強國、灈陽縣、期思縣、陽安縣、項縣、西華縣、細陽縣、安城國、吳房縣、鮦陽國、慎陽縣、慎縣、新蔡縣、安陽國、富波國、宜祿縣、郎陵國、弋陽國、召陵縣、征羌國、思善國、宋國、褒信國、原鹿國、定潁國、固始國、山桑國、城父縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梁國	9	下邑	下邑、睢陽縣、虞縣、碭山縣、蒙縣、谷熟縣、鄢縣、甯陵縣、薄縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">沛國	21	相縣	相縣、蕭縣、沛縣、豐縣、酇縣、穀陽縣、譙縣、洨縣、蘄縣、銍縣、鄲縣、建平縣、臨睢縣、竹邑國、公丘縣、龍亢縣、向縣、符離縣、虹縣、太丘縣、杼秋縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陳國	9	陳縣	陳縣、陽夏縣、甯平縣、苦縣、柘縣、新平縣、扶樂縣、武平縣、長平縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魯國	6	魯縣	魯縣、騶縣、蕃縣、薛縣、卞縣、汶陽縣		</t>
+  </si>
+  <si>
+    <t>冀州（104）	高邑	魏郡	15	鄴	鄴縣、繁陽縣、內黃縣、魏縣、元城縣、黎陽縣、陰安邑、館陶縣、清淵縣、平恩縣、沙國、斥丘縣、武安縣、曲梁國、梁期縣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	（鄗縣）				</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉅鹿郡	15	癭陶縣	癭陶縣、鉅鹿縣、楊氏縣、鄡縣、下曲陽縣、任縣、南和縣、廣平縣、斥章縣、廣宗縣、曲周縣、列人縣、廣年縣、平鄉縣、南䜌縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">常山國	13	元氏縣	元氏縣、高邑、都鄉國、南行唐縣、房子縣、平棘縣、欒城縣、九門縣、靈壽縣、蒲吾縣、井陘縣、真定縣、上艾縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中山國	13	盧奴縣	盧奴縣、北平縣、毋極縣、新市縣、望都縣、唐縣、安國縣、安喜縣、漢昌縣、蠡吾國、上曲陽縣、蒲陰縣、廣昌縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安平國	13	信都縣	信都縣、阜城縣、南宮縣、扶柳縣、下博縣、武邑、觀津縣、堂陽縣、武遂縣、饒陽縣、安平縣、南深澤縣、經縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">河間國	11	樂成縣	樂成縣、弓高縣、易縣、武垣縣、中水縣、鄚縣、高陽縣、文安縣、束州縣、成平縣、東平舒縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">清河國	11	甘陵縣	甘陵縣、貝丘縣、東武城縣、鄃縣、靈縣、繹幕縣、廣川縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">趙國	5	邯鄲	邯鄲縣、易陽縣、襄國縣、柏人縣、中丘縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">渤海郡	8	南皮	南皮縣、高城國、重合國、浮陽國、東光縣、章武縣、陽信縣、修縣		</t>
+  </si>
+  <si>
+    <t>兗州（80）	昌邑	陳留郡	17	陳留縣	陳留縣、浚儀縣、尉氏縣、雍丘縣、襄邑、外黃縣、小黃縣、東昏縣、濟陽縣、平丘縣、封丘縣、酸棗縣、長垣國、己吾縣、考城縣、圉縣、扶溝縣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">東郡	15	濮陽	濮陽縣、燕縣、白馬縣、頓丘縣、東阿縣、東武陽縣、范縣、臨邑、博平縣、聊城縣、發乾縣、樂平國、陽平國、衛國、谷城縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">東平國	7	無鹽縣	無鹽縣、東平陸縣、富成縣、鄣縣、壽張縣、須昌縣、寧陽縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任城國	3	任城縣	任城縣、亢父縣、樊縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泰山郡	12	奉高縣	奉高縣、博縣、梁甫國、鉅平國、嬴縣、山茌國、萊蕪縣、蓋縣、南武陽國、南城縣、費國、牟縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">濟北國	5	盧縣	盧縣、蛇丘縣、成縣、茌平縣、剛縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山陽郡	10	昌邑	昌邑、東緡縣、鉅野縣、高平國、湖陸縣、南平陽國、方與縣、瑕丘縣、金鄉縣、防東縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">濟陰郡	11	定陶縣	定陶縣、冤句縣、成陽縣、乘氏國、句陽縣、鄄城縣、離狐縣、廩丘縣、單父國、成武縣、己氏縣		</t>
+  </si>
+  <si>
+    <t>徐州（62）	郯縣	東海國	13	郯縣	郯縣、蘭陵縣、戚縣、朐縣、襄賁縣、昌慮縣、氶縣、陰平縣、利城縣、合鄉縣、祝其縣、厚丘縣、贛榆縣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">琅玡國	13	開陽縣	開陽縣、東武縣、琅邪縣、東莞縣、西海縣、諸縣、莒縣、東安縣、陽都縣、臨沂縣、即丘國、繒國、姑幕縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">彭城國	8	彭城	彭城縣、武原縣、傅陽縣、呂縣、留縣、梧縣、菑丘縣、廣戚縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廣陵郡	11	廣陵縣	廣陵縣、江都縣、高郵縣、平安縣、凌縣、東陽縣、射陽縣、鹽瀆縣、輿國、堂邑、海西縣、海陵縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下邳國	17	下邳	下邳縣、徐縣、僮國、睢陵縣、下相縣、淮陰縣、淮浦縣、盱台縣、高山縣、潘旌縣、淮陵縣、取慮縣、東城縣、曲陽國、司吾國、良成縣、夏丘縣		</t>
+  </si>
+  <si>
+    <t>青州（62）	臨淄	濟南國	10	東平陵縣	東平陵縣、著縣、於陵縣、台縣、菅縣、土鼓縣、梁鄒縣、鄒平縣、東朝陽縣、歷城縣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平原郡	9	平原縣	平原縣、高唐縣、般縣、鬲國、祝阿縣、樂陵縣、漯陰縣、安德國、厭次縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樂安國	9	臨濟縣	臨濟縣、千乘縣、高宛縣、樂安縣、博昌縣、蓼城國、利縣、益國、壽光縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北海國	18	劇縣	劇縣、營陵縣、平壽縣、都昌縣、安丘縣、淳于縣、平昌國、朱虛國、東安平縣、高密國、昌安國、夷安國、膠東國、即墨國、壯武縣、下密縣、挺縣、觀陽縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">東萊郡	13	黃縣	黃縣、牟平縣、惤國、曲成國、掖國、當利國、東牟國、昌陽縣、盧鄉縣、長廣縣、黔陬國、葛盧縣、不其國		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">齊國	6	臨菑	臨菑縣、西安縣、昌國縣、臨朐縣、廣縣、般陽縣		</t>
+  </si>
+  <si>
+    <t>荊州（117）	漢壽	南陽郡	37	宛	宛縣、冠軍邑、葉縣、新野縣、章陵縣、西鄂縣、雉縣、魯陽縣、犨縣、堵陽縣、博望縣、舞陰邑、比陽縣、復陽國、平氏縣、棘陽縣、湖陽邑、隨縣、育陽邑、涅陽縣、陰縣、酇縣、鄧縣、山都國、酈國、穰縣、朝陽縣、蔡陽國、安眾國、筑陽國、武當縣、順陽國、成都縣、襄鄉縣、南鄉縣、丹水縣、析縣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	襄陽				</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南郡	17	江陵縣	江陵縣、巫縣、秭歸縣、中盧國、編縣、當陽縣、華容國、襄陽縣、邔國、宜城國、鄀國、臨沮國、枝江國、夷道、夷陵縣、州陵縣、佷山縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">零陵郡	13	泉陵縣	泉陵縣、零陵縣、營道、營浦縣、泠道、洮陽縣、都梁縣、夫夷國、始安國、重安國、湘鄉縣、昭陽國、烝陽國		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桂陽郡	11	郴縣	郴縣、便縣、耒陽縣、陰山縣、南平縣、臨武縣、桂陽縣、含洭縣、湞陽縣、曲江縣、漢寧縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武陵郡	12	臨沅縣	臨沅縣、漢壽縣、孱陵縣、零陽縣、充縣、沅陵縣、辰陽縣、酉陽縣、遷陵縣、鐔成縣、沅南縣、作唐縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">長沙郡	13	臨湘縣	臨湘縣、攸縣、茶陵縣、安城縣、酃縣、湘南國、連道、昭陵縣、益陽縣、下雋縣、羅縣、醴陵縣、容陵縣		</t>
+  </si>
+  <si>
+    <t>揚州（92）	歷陽	九江郡	14	陰陵縣	陰陵縣、壽春縣、浚遒縣、成德縣、西曲陽縣、合肥國、歷陽國、當涂縣、全椒縣、鍾離國、阜陵縣、下蔡縣、平阿縣、義成縣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	壽春				</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	合肥				</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丹陽郡	16	宛陵縣	宛陵縣、溧陽縣、丹陽縣、故鄣縣、於潛縣、涇縣、歙縣、黝縣、陵陽縣、蕪湖縣、秣陵縣、湖熟國、句容縣、江乘縣、春谷縣、石城縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廬江郡	14	舒縣	舒縣、雩婁國、尋陽縣、灊縣、臨湖國、龍舒國、襄安縣、皖縣、居巢國、六安縣、蓼國、安豐縣、陽泉國、安風國		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">會稽郡	14	山陰縣	山陰縣、鄮縣、烏傷縣、諸暨縣、余暨縣、太末縣、上虞縣、剡縣、餘姚縣、句章縣、鄞縣、章安縣、永寧縣、東部國、冶縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吳郡	13	吳縣	吳縣、海鹽縣、烏程縣、餘杭縣、毗陵縣、丹徒縣、曲阿縣、由拳縣、錢唐縣、富春縣、陽羡邑、無錫國、婁縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">豫章郡	21	南昌	南昌縣、建城縣、新淦縣、宜春縣、廬陵縣、贛縣、雩都縣、南野縣、南城縣、鄱陽縣、歷陵縣、余汗縣、鄡陽縣、彭澤縣、柴桑縣、艾縣、海昏國、平都國、石陽縣、臨汝縣、建昌縣		</t>
+  </si>
+  <si>
+    <t>益州（114）	雒縣	漢中郡	9	南鄭	南鄭縣、成固縣、西城縣、褒中縣、沔陽縣、安陽縣、錫縣、上庸縣、房陵縣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	綿竹				</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	成都				</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巴郡	14	江州縣	江州縣、宕渠縣、朐䏰縣、閬中縣、魚復縣、臨江縣、枳縣、涪陵縣、墊江縣、安漢縣、平都縣、充國縣、宣漢縣、漢昌縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廣漢郡	11	雒縣	雒縣、新都縣、綿竹縣、什邡縣、涪縣、梓潼縣、白水縣、葭萌縣、郪縣、廣漢縣、德陽縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜀郡	11	成都	成都縣、郫縣、江原縣、繁縣、廣都縣、臨邛縣、湔氏道、汶江道、蠶陵縣、廣柔縣、綿虒道		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">犍為郡	9	武陽縣	武陽縣、資中縣、牛鞞縣、南安縣、僰道、江陽縣、符節縣、南廣縣、漢安縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">牂牁郡	16	故且蘭縣	故且蘭縣、平夷縣、鄨縣、毋斂縣、談指縣、夜郎縣、同並縣、談稿縣[注 3]、漏江縣、毋單縣、宛溫縣、鐔封縣、漏臥縣、都夢縣（句町縣）、進乘縣[注 4]、西隨縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">越巂郡	14	邛都縣	邛都縣、遂久縣、靈關道、台登縣、青蛉縣、卑水縣、三縫縣、會無縣、定莋縣、闡縣、蘇示縣、大莋縣、莋秦縣、姑復縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">益州郡	17	滇池縣	滇池縣、勝休縣、俞元縣、律高縣、賁古縣、毋棳縣、建伶縣、谷昌縣、牧靡縣、味縣、昆澤縣、同瀨縣、同勞縣、雙柏縣、連然縣、梇棟縣、秦臧縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永昌郡	8	不韋縣	不韋縣、巂唐縣、比蘇縣、楪榆縣、邪龍縣、雲南縣、哀牢縣、博南縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廣漢屬國	3	陰平道	陰平道、甸氐道、剛氐道		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜀郡屬國	4	漢嘉縣	漢嘉縣、嚴道、徙縣、旄牛縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">犍為屬國	2	朱提縣	朱提縣、漢陽縣		</t>
+  </si>
+  <si>
+    <t>涼州（98）	隴縣	隴西郡	11	狄道	狄道、安故縣、氐道、首陽縣、大夏縣、襄武縣、臨洮縣、枹罕縣、白石縣、鄣縣、河關縣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漢陽郡	13	冀縣	冀縣、望垣縣、阿陽縣、略陽縣、勇士縣、成紀縣、隴縣、豲道、蘭干縣、平襄縣、顯親縣、上邽縣、西縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武都郡	7	下辨縣	下辨縣、武都道、上祿縣、故道、河池縣、沮縣、羌道		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金城郡	10	允吾縣	允吾縣、浩亹縣、令居縣、枝陽縣、金城縣、榆中縣、臨羌縣、破羌縣、安夷縣、允街縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安定郡	8	臨涇縣	臨涇縣、高平縣、朝那縣、烏枝縣、三水縣、陰槃縣、彭陽縣、鶉觚縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北地郡	6	富平縣	富平縣、泥陽縣、弋居縣、廉縣、參䜌縣、靈州縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武威郡	14	姑臧縣	姑臧縣、張掖縣、武威縣、休屠縣、揟次縣、鷥鳥縣、樸𠟼縣、媼圍縣、宣威縣、蒼松縣、鸇陰縣、祖厲縣、顯美縣、左騎千人官		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">張掖郡	8	觻得縣	觻得縣、昭武縣、刪丹縣、氐池縣、屋蘭縣、日勒縣、驪靬縣、番和縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">酒泉郡	9	祿福縣	祿福縣、表氏縣、樂涫縣、玉門縣、會水縣、沙頭縣、安彌縣、干齊縣、延壽縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">敦煌郡	6	敦煌縣	敦煌縣、冥安縣、效谷縣、淵泉縣、廣至縣、龍勒縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">張掖屬國	5	候官	候官、左騎縣、千人縣、司馬官、千人官		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">張掖居延屬國	1	居延縣	居延縣		</t>
+  </si>
+  <si>
+    <t>并州（98）	晉陽	上黨郡	13	長子縣	長子縣、屯留縣、銅鞮縣、沾縣、涅縣、襄垣縣、壺關縣、泫氏縣、高都縣、潞縣、陭氏縣、陽阿國、谷遠縣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上郡	10	膚施縣	膚施縣、白土縣、漆垣縣、奢延縣、雕陰縣、楨林縣、定陽縣、高奴縣、龜茲國、候官縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西河郡	13	離石縣	離石縣、平定縣、美稷縣、樂街縣、中陽縣、皋狼縣、平周縣、平陸縣、益蘭縣、圜陰縣、藺縣、圜陽縣、廣衍縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">五原郡	10	九原縣	九原縣、五原縣、臨沃縣、文國縣、河陰縣、武都縣、宜梁縣、曼柏縣、成宜縣、西安陽縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雲中郡	11	雲中縣	雲中縣、咸陽縣、箕陵縣、沙陵縣、沙南縣、北輿縣、武泉縣、原陽縣、定襄縣、成樂縣、武進縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">定襄郡	5	善無縣	善無縣、桐過縣、武成縣、駱縣、中陵縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雁門郡	14	陰館縣	陰館縣、繁峙縣、樓煩縣、武州縣、汪陶縣、劇陽縣、崞縣、平城縣、埒縣、馬邑、鹵城縣、廣武縣、原平縣、彊陰縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朔方郡	6	臨戎縣	臨戎縣、三封縣、朔方縣、沃野縣、廣牧縣、大城縣		</t>
+  </si>
+  <si>
+    <t>幽州（90）	薊縣	涿郡	7	涿縣	涿縣、遒國、故安縣、范陽國、良鄉縣、北新城縣、方城縣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廣陽郡	5	薊縣	薊縣、廣陽縣、昌平縣、軍都縣、安次縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代郡	11	高柳縣	高柳縣、桑乾縣、道人縣、當城縣、馬城縣、班氏縣、狋氏縣、北平邑、東安陽縣、平舒縣、代縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上谷郡	8	沮陽縣	沮陽縣、潘縣、甯縣、廣甯縣、居庸縣、雊瞀縣、涿鹿縣、下落縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漁陽郡	9	漁陽縣	漁陽縣、狐奴縣、潞縣、雍奴縣、泉州縣、平谷縣、安樂縣、厗奚縣、獷平縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">右北平郡	4	土垠縣	土垠縣、徐無縣、俊靡縣、無終縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遼西郡	5	陽樂縣	陽樂縣、海陽縣、令支縣、肥如縣、臨渝縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遼東郡	11	襄平縣	襄平縣、新昌縣、無慮縣、望平縣、遼隊縣、安市縣、平郭縣、西安平縣、汶縣、番汗縣、沓氏縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玄菟郡	6	高句驪縣	高句驪縣、西蓋馬縣、上殷台縣、高顯縣、候城縣、遼陽縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樂浪郡	18	朝鮮縣	朝鮮縣、𧦦邯縣、浿水縣、含資縣、占蟬縣、遂城縣、增地縣、帶方縣、駟望縣、海冥縣、列口縣、長岑縣、屯有縣、昭明縣、鏤方縣、提奚縣、渾彌縣、樂都縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遼東屬國	6	昌遼縣	昌遼縣、賓徒縣、徒河縣、扶黎縣、險瀆縣、房縣		</t>
+  </si>
+  <si>
+    <t>交州（56）	龍編	南海郡	7	番禺縣	番禺縣、博羅縣、中宿縣、龍川縣、四會縣、揭陽縣、增城縣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒼梧郡	11	廣信縣	廣信縣、謝沐縣、高要縣、封陽縣、臨賀縣、端谿縣、馮乘縣、富川縣、荔浦縣、猛陵縣、鄣平縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鬱林郡	11	布山縣	布山縣、安廣縣、阿林縣、廣鬱縣、中溜縣、桂林縣、潭中縣、臨塵縣、定周縣、增食縣、領方縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合浦郡	5	合浦縣	合浦縣、徐聞縣、高涼縣、臨允縣、朱崖縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">交趾郡	12	龍編縣	龍編縣、羸𨻻縣、安定縣、苟漏縣、麊泠縣、曲陽縣、北帶縣、稽徐縣、西於縣、朱䳒縣、封谿縣、望海縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">九真郡	5	胥浦縣	胥浦縣、居風縣、咸懽縣、無功縣、無編縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日南郡	5	西卷縣	西卷縣、硃吾縣、盧容縣、像林縣、比景縣		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">江夏郡	14	西陵縣	西陵縣、西陽縣、軑國、鄳縣、竟陵國、雲杜縣、沙羡縣、邾縣、下雉縣、蘄春國、鄂縣、平春國、南新市國、安陸縣		</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安陸縣</t>
+    <rPh sb="0" eb="1">
+      <t>an'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">太原郡	16	晉陽	晉陽縣、界休縣、榆次縣、中都縣、於離縣、茲氏縣、狼孟縣、鄔縣、盂縣、平陶縣、京陵縣、陽曲縣、大陵縣、祁縣、慮虒縣、陽邑		</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界休縣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁縣</t>
+    <rPh sb="0" eb="1">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漁陽郡</t>
+    <rPh sb="0" eb="1">
+      <t>yu'yang'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉州縣</t>
+    <rPh sb="0" eb="1">
+      <t>quan'zhou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xina</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>光</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衣冠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Siyuansong"/>
+      </rPr>
+      <t>子孙，径路平易</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>袁紹字本初，汝南汝陽人，司徒湯之孫……載紹家及諸</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Siyuansong"/>
+      </rPr>
+      <t>衣冠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Siyuansong"/>
+      </rPr>
+      <t>在州內者，身自扞衞，送到斥丘。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王龔字伯宗，山陽高平人也。世為豪族 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王龔</t>
+  </si>
+  <si>
+    <t>山陽郡</t>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高平國</t>
+    <rPh sb="0" eb="1">
+      <t>gao'ping</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪族</t>
+  </si>
+  <si>
+    <t>融外戚豪家，多列女倡歌舞於前。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬融</t>
+    <rPh sb="0" eb="1">
+      <t>ma</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56,46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64,54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪家</t>
+    <rPh sb="0" eb="1">
+      <t>hao'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右扶風</t>
+    <rPh sb="0" eb="1">
+      <t>you'fu'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶漱官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烏桓</t>
+    <rPh sb="0" eb="1">
+      <t>wu'huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烏桓豪人扶漱官勇健，每與鮮卑戰，輒陷敵，詔賜號「率眾君」。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪人</t>
+  </si>
+  <si>
+    <t>常山國</t>
+    <rPh sb="0" eb="1">
+      <t>chang'shan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真定縣</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光武郭皇后諱聖通，真定槀人也。為郡著姓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭皇后</t>
+  </si>
+  <si>
+    <t>著姓</t>
+  </si>
+  <si>
+    <t>李通字次元，南陽宛人也。世以貨殖著姓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李通</t>
+  </si>
+  <si>
+    <t>15,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>寇恂字子翼，上谷昌平人也，世為</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFEA0000"/>
+        <rFont val="Siyuansong"/>
+      </rPr>
+      <t>著姓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Siyuansong"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寇恂</t>
+  </si>
+  <si>
+    <t>16,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上谷郡</t>
+    <rPh sb="0" eb="1">
+      <t>shang'gu'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌平縣</t>
+    <rPh sb="0" eb="1">
+      <t>chang'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌平縣亦層歸屬廣陽郡，根據原文按上谷郡。</t>
+    <rPh sb="0" eb="1">
+      <t>chang'ping</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xina</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ceng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gui'shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guagn'yang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jun</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yuan'we</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>an</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shagn'gu'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊宏字靡卿，南陽湖陽人也，世祖之舅。其先周仲山甫，封于樊，因而氏焉，為鄉里著姓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊宏</t>
+  </si>
+  <si>
+    <t>32,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖陽縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓棱字伯師，潁川舞陽人，弓高侯穨當之後也。世為鄉里著姓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓棱</t>
+  </si>
+  <si>
+    <t>45,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潁川郡</t>
+    <rPh sb="0" eb="1">
+      <t>ying'chuan'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞陽縣</t>
+    <rPh sb="0" eb="1">
+      <t>wu'yang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張衡字平子，南陽西鄂人也。世為著姓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張衡</t>
+  </si>
+  <si>
+    <t>59,49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西鄂縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62,52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍾皓字季明，潁川長社人也。為郡著姓，世善刑律。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍾皓</t>
+  </si>
+  <si>
+    <t>長社縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京兆尹</t>
+    <rPh sb="0" eb="1">
+      <t>jing'zhao'yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸陵縣</t>
+    <rPh sb="0" eb="1">
+      <t>ba'ling</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓康字伯休，一名恬休，京兆霸陵人。家世著姓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓康</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +2271,30 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="Siyuansong"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Siyuansong"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Siyuansong"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFEA0000"/>
       <name val="Siyuansong"/>
     </font>
   </fonts>
@@ -159,9 +2318,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -439,110 +2599,2865 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>559</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H20" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>562</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>561</v>
+      </c>
+      <c r="H21" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>566</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="H22" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>572</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F23" t="s">
+        <v>571</v>
+      </c>
+      <c r="H23" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>576</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F24" t="s">
+        <v>575</v>
+      </c>
+      <c r="H24" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>581</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>583</v>
+      </c>
+      <c r="F25" t="s">
+        <v>580</v>
+      </c>
+      <c r="H25" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>586</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E26" t="s">
+        <v>587</v>
+      </c>
+      <c r="F26" t="s">
+        <v>585</v>
+      </c>
+      <c r="H26" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>592</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E27" t="s">
+        <v>590</v>
+      </c>
+      <c r="F27" t="s">
+        <v>591</v>
+      </c>
+      <c r="H27" t="s">
+        <v>560</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" tooltip="颍川郡"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="A1:F113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45">
+        <v>37</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" t="s">
+        <v>195</v>
+      </c>
+      <c r="D53">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D57" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>211</v>
+      </c>
+      <c r="F61" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>225</v>
+      </c>
+      <c r="D71" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>227</v>
+      </c>
+      <c r="D72" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>229</v>
+      </c>
+      <c r="D73" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>230</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>231</v>
+      </c>
+      <c r="D74" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>235</v>
+      </c>
+      <c r="F75" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76">
+        <v>13</v>
+      </c>
+      <c r="C76" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>238</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>239</v>
+      </c>
+      <c r="D77" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>242</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>243</v>
+      </c>
+      <c r="D79" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>245</v>
+      </c>
+      <c r="D80" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>247</v>
+      </c>
+      <c r="D81" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>248</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>250</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>251</v>
+      </c>
+      <c r="D83" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>252</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>253</v>
+      </c>
+      <c r="D84" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>254</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>255</v>
+      </c>
+      <c r="D85" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C86" t="s">
+        <v>257</v>
+      </c>
+      <c r="D86" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>258</v>
+      </c>
+      <c r="B87" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" t="s">
+        <v>260</v>
+      </c>
+      <c r="D87">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>261</v>
+      </c>
+      <c r="F87" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>262</v>
+      </c>
+      <c r="B88">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>259</v>
+      </c>
+      <c r="D88" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>263</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>264</v>
+      </c>
+      <c r="D89" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>265</v>
+      </c>
+      <c r="B90">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>266</v>
+      </c>
+      <c r="D90" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>267</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>268</v>
+      </c>
+      <c r="D91" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>269</v>
+      </c>
+      <c r="B92">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>270</v>
+      </c>
+      <c r="D92" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>271</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>273</v>
+      </c>
+      <c r="B94">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>274</v>
+      </c>
+      <c r="D94" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>275</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>276</v>
+      </c>
+      <c r="D95" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" t="s">
+        <v>278</v>
+      </c>
+      <c r="C96" t="s">
+        <v>279</v>
+      </c>
+      <c r="D96">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>280</v>
+      </c>
+      <c r="F96" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>281</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>278</v>
+      </c>
+      <c r="D97" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>282</v>
+      </c>
+      <c r="B98">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>283</v>
+      </c>
+      <c r="D98" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>284</v>
+      </c>
+      <c r="B99">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>285</v>
+      </c>
+      <c r="D99" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>286</v>
+      </c>
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>288</v>
+      </c>
+      <c r="B101">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>289</v>
+      </c>
+      <c r="D101" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>290</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>291</v>
+      </c>
+      <c r="D102" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>292</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>293</v>
+      </c>
+      <c r="D103" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>294</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>295</v>
+      </c>
+      <c r="D104" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>296</v>
+      </c>
+      <c r="B105">
+        <v>18</v>
+      </c>
+      <c r="C105" t="s">
+        <v>297</v>
+      </c>
+      <c r="D105" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>298</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>299</v>
+      </c>
+      <c r="D106" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C107" t="s">
+        <v>302</v>
+      </c>
+      <c r="D107">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>303</v>
+      </c>
+      <c r="F107" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>304</v>
+      </c>
+      <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>305</v>
+      </c>
+      <c r="D108" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>306</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>307</v>
+      </c>
+      <c r="D109" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>308</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>309</v>
+      </c>
+      <c r="D110" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>310</v>
+      </c>
+      <c r="B111">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>311</v>
+      </c>
+      <c r="D111" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>312</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>313</v>
+      </c>
+      <c r="D112" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>314</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>315</v>
+      </c>
+      <c r="D113" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>6</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/CSV/豪族统计表.xlsx
+++ b/CSV/豪族统计表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="460" windowWidth="24960" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="1980" yWindow="1860" windowWidth="24960" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="630">
   <si>
     <t>引文</t>
     <rPh sb="0" eb="1">
@@ -2246,6 +2246,178 @@
   </si>
   <si>
     <t>韓康</t>
+  </si>
+  <si>
+    <t>鄧晨字偉卿，南陽新野人也。世吏二千石。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄧晨</t>
+  </si>
+  <si>
+    <t>新野縣</t>
+    <rPh sb="0" eb="1">
+      <t>xin'ye'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世吏二千石</t>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯恭字仲康，扶風平陵人也。其先出於魯（傾）〔頃〕公，其先出於魯（傾）〔頃〕公　按：校補謂「傾」乃「頃」之誤，史記魯世家可證。今據改。為楚所滅，遷於下邑，因氏焉。世吏二千石，哀平閒，自魯而徙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯恭</t>
+  </si>
+  <si>
+    <t>平陵縣</t>
+    <rPh sb="0" eb="1">
+      <t>ping'ling</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濟北惠王壽，母申貴人，潁川人也，世吏二千石。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申貴人</t>
+  </si>
+  <si>
+    <t>78,68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹節</t>
+  </si>
+  <si>
+    <t>曹節字漢豐，南陽新野人也。其本魏郡人，世吏二千石。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張堪字君游，南陽宛人也，為郡族姓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張堪</t>
+  </si>
+  <si>
+    <t>族姓</t>
+  </si>
+  <si>
+    <t>31,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馮魴字孝孫，南陽湖陽人也。其先魏之支別，食菜馮城，因以氏焉。秦滅魏，遷于湖陽，為郡族姓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馮魴</t>
+  </si>
+  <si>
+    <t>33,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸續字智初，會稽吳人也。世為族姓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸續</t>
+  </si>
+  <si>
+    <t>會稽郡</t>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81,71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮年少有才能，頗欲厲風迹，收士心，辟召州中名宿涿郡王岑之屬，以為從事，[二]岑後為梁州牧。及王莽時故吏二千石，皆引置幕府，乃多發諸郡倉穀，稟贍其妻子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岑</t>
+  </si>
+  <si>
+    <t>名宿</t>
+  </si>
+  <si>
+    <r>
+      <t>蕃對曰：「閎出生</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFEA0000"/>
+        <rFont val="Siyuansong"/>
+      </rPr>
+      <t>公族</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Siyuansong"/>
+      </rPr>
+      <t>，聞道漸訓。」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁閎</t>
+  </si>
+  <si>
+    <t>公族</t>
+  </si>
+  <si>
+    <t>ClanID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琬竟坐免。卓猶敬其名德舊族，不敢害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃琬</t>
+    <rPh sb="0" eb="1">
+      <t>haugn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61,51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonalID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舊族</t>
   </si>
 </sst>
 </file>
@@ -2318,10 +2490,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2599,513 +2769,617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="I1" t="s">
+        <v>624</v>
+      </c>
+      <c r="J1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>538</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>539</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>532</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>262</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>534</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
+      <c r="H14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>262</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>535</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
+      <c r="H15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>536</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>537</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>541</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>547</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>542</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>543</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>540</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>546</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>548</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>550</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>545</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>551</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>552</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>553</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>554</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>559</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>564</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>556</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>557</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>558</v>
       </c>
       <c r="H20" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>562</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>563</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>67</v>
       </c>
       <c r="F21" t="s">
@@ -3114,47 +3388,59 @@
       <c r="H21" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>566</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>567</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>568</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>569</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>565</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" t="s">
         <v>570</v>
       </c>
       <c r="H22" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>572</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>573</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>574</v>
       </c>
       <c r="F23" t="s">
@@ -3163,21 +3449,27 @@
       <c r="H23" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>22</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>576</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>577</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>578</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
         <v>579</v>
       </c>
       <c r="F24" t="s">
@@ -3186,18 +3478,24 @@
       <c r="H24" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>23</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>581</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>582</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>63</v>
       </c>
       <c r="E25" t="s">
@@ -3209,18 +3507,24 @@
       <c r="H25" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>24</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>586</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>584</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>578</v>
       </c>
       <c r="E26" t="s">
@@ -3232,18 +3536,24 @@
       <c r="H26" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>592</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>588</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>589</v>
       </c>
       <c r="E27" t="s">
@@ -3254,6 +3564,329 @@
       </c>
       <c r="H27" t="s">
         <v>560</v>
+      </c>
+      <c r="I27">
+        <v>26</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>594</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>563</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>595</v>
+      </c>
+      <c r="F28" t="s">
+        <v>593</v>
+      </c>
+      <c r="H28" t="s">
+        <v>596</v>
+      </c>
+      <c r="I28">
+        <v>27</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>598</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>600</v>
+      </c>
+      <c r="D29" t="s">
+        <v>550</v>
+      </c>
+      <c r="E29" t="s">
+        <v>599</v>
+      </c>
+      <c r="F29" t="s">
+        <v>597</v>
+      </c>
+      <c r="H29" t="s">
+        <v>596</v>
+      </c>
+      <c r="I29">
+        <v>28</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>603</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>601</v>
+      </c>
+      <c r="D30" t="s">
+        <v>578</v>
+      </c>
+      <c r="F30" t="s">
+        <v>602</v>
+      </c>
+      <c r="H30" t="s">
+        <v>596</v>
+      </c>
+      <c r="I30">
+        <v>29</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>605</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>604</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>595</v>
+      </c>
+      <c r="F31" t="s">
+        <v>606</v>
+      </c>
+      <c r="H31" t="s">
+        <v>596</v>
+      </c>
+      <c r="I31">
+        <v>30</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>608</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>610</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>607</v>
+      </c>
+      <c r="H32" t="s">
+        <v>609</v>
+      </c>
+      <c r="I32">
+        <v>31</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>612</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>613</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>574</v>
+      </c>
+      <c r="F33" t="s">
+        <v>611</v>
+      </c>
+      <c r="H33" t="s">
+        <v>609</v>
+      </c>
+      <c r="I33">
+        <v>32</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>615</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>617</v>
+      </c>
+      <c r="D34" t="s">
+        <v>616</v>
+      </c>
+      <c r="F34" t="s">
+        <v>614</v>
+      </c>
+      <c r="H34" t="s">
+        <v>609</v>
+      </c>
+      <c r="I34">
+        <v>33</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>619</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>613</v>
+      </c>
+      <c r="D35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" t="s">
+        <v>618</v>
+      </c>
+      <c r="H35" t="s">
+        <v>620</v>
+      </c>
+      <c r="I35">
+        <v>34</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>622</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>621</v>
+      </c>
+      <c r="H36" t="s">
+        <v>623</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>626</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>627</v>
+      </c>
+      <c r="D37" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" t="s">
+        <v>532</v>
+      </c>
+      <c r="F37" t="s">
+        <v>625</v>
+      </c>
+      <c r="H37" t="s">
+        <v>629</v>
+      </c>
+      <c r="I37">
+        <v>12</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4889,8 +5522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/CSV/豪族统计表.xlsx
+++ b/CSV/豪族统计表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1860" windowWidth="24960" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="1440" yWindow="1100" windowWidth="24960" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="667">
   <si>
     <t>引文</t>
     <rPh sb="0" eb="1">
@@ -1599,9 +1599,6 @@
   </si>
   <si>
     <t>徐州（62）	郯縣	東海國	13	郯縣	郯縣、蘭陵縣、戚縣、朐縣、襄賁縣、昌慮縣、氶縣、陰平縣、利城縣、合鄉縣、祝其縣、厚丘縣、贛榆縣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">琅玡國	13	開陽縣	開陽縣、東武縣、琅邪縣、東莞縣、西海縣、諸縣、莒縣、東安縣、陽都縣、臨沂縣、即丘國、繒國、姑幕縣		</t>
   </si>
   <si>
     <t xml:space="preserve">彭城國	8	彭城	彭城縣、武原縣、傅陽縣、呂縣、留縣、梧縣、菑丘縣、廣戚縣		</t>
@@ -1990,28 +1987,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扶漱官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烏桓</t>
-    <rPh sb="0" eb="1">
-      <t>wu'huan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烏桓豪人扶漱官勇健，每與鮮卑戰，輒陷敵，詔賜號「率眾君」。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪人</t>
-  </si>
-  <si>
     <t>常山國</t>
     <rPh sb="0" eb="1">
       <t>chang'shan</t>
@@ -2055,6 +2030,323 @@
   <si>
     <t>10,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寇恂</t>
+  </si>
+  <si>
+    <t>16,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上谷郡</t>
+    <rPh sb="0" eb="1">
+      <t>shang'gu'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌平縣</t>
+    <rPh sb="0" eb="1">
+      <t>chang'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌平縣亦層歸屬廣陽郡，根據原文按上谷郡。</t>
+    <rPh sb="0" eb="1">
+      <t>chang'ping</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xina</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ceng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gui'shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guagn'yang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jun</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yuan'we</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>an</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shagn'gu'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊宏字靡卿，南陽湖陽人也，世祖之舅。其先周仲山甫，封于樊，因而氏焉，為鄉里著姓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊宏</t>
+  </si>
+  <si>
+    <t>32,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖陽縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓棱字伯師，潁川舞陽人，弓高侯穨當之後也。世為鄉里著姓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓棱</t>
+  </si>
+  <si>
+    <t>45,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潁川郡</t>
+    <rPh sb="0" eb="1">
+      <t>ying'chuan'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞陽縣</t>
+    <rPh sb="0" eb="1">
+      <t>wu'yang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張衡字平子，南陽西鄂人也。世為著姓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張衡</t>
+  </si>
+  <si>
+    <t>59,49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西鄂縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62,52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍾皓字季明，潁川長社人也。為郡著姓，世善刑律。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍾皓</t>
+  </si>
+  <si>
+    <t>長社縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京兆尹</t>
+    <rPh sb="0" eb="1">
+      <t>jing'zhao'yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸陵縣</t>
+    <rPh sb="0" eb="1">
+      <t>ba'ling</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓康字伯休，一名恬休，京兆霸陵人。家世著姓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓康</t>
+  </si>
+  <si>
+    <t>鄧晨字偉卿，南陽新野人也。世吏二千石。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄧晨</t>
+  </si>
+  <si>
+    <t>新野縣</t>
+    <rPh sb="0" eb="1">
+      <t>xin'ye'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世吏二千石</t>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯恭字仲康，扶風平陵人也。其先出於魯（傾）〔頃〕公，其先出於魯（傾）〔頃〕公　按：校補謂「傾」乃「頃」之誤，史記魯世家可證。今據改。為楚所滅，遷於下邑，因氏焉。世吏二千石，哀平閒，自魯而徙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯恭</t>
+  </si>
+  <si>
+    <t>平陵縣</t>
+    <rPh sb="0" eb="1">
+      <t>ping'ling</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濟北惠王壽，母申貴人，潁川人也，世吏二千石。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申貴人</t>
+  </si>
+  <si>
+    <t>78,68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹節</t>
+  </si>
+  <si>
+    <t>曹節字漢豐，南陽新野人也。其本魏郡人，世吏二千石。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張堪字君游，南陽宛人也，為郡族姓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張堪</t>
+  </si>
+  <si>
+    <t>族姓</t>
+  </si>
+  <si>
+    <t>31,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馮魴字孝孫，南陽湖陽人也。其先魏之支別，食菜馮城，因以氏焉。秦滅魏，遷于湖陽，為郡族姓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馮魴</t>
+  </si>
+  <si>
+    <t>33,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸續字智初，會稽吳人也。世為族姓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸續</t>
+  </si>
+  <si>
+    <t>會稽郡</t>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81,71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮年少有才能，頗欲厲風迹，收士心，辟召州中名宿涿郡王岑之屬，以為從事，[二]岑後為梁州牧。及王莽時故吏二千石，皆引置幕府，乃多發諸郡倉穀，稟贍其妻子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岑</t>
+  </si>
+  <si>
+    <t>名宿</t>
+  </si>
+  <si>
+    <t>袁閎</t>
+  </si>
+  <si>
+    <t>公族</t>
+  </si>
+  <si>
+    <t>ClanID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琬竟坐免。卓猶敬其名德舊族，不敢害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃琬</t>
+    <rPh sb="0" eb="1">
+      <t>haugn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61,51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonalID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舊族</t>
   </si>
   <si>
     <r>
@@ -2063,306 +2355,21 @@
     <r>
       <rPr>
         <b/>
-        <sz val="16"/>
-        <color rgb="FFEA0000"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Siyuansong"/>
       </rPr>
       <t>著姓</t>
     </r>
     <r>
       <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Siyuansong"/>
       </rPr>
       <t>。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寇恂</t>
-  </si>
-  <si>
-    <t>16,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上谷郡</t>
-    <rPh sb="0" eb="1">
-      <t>shang'gu'jun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昌平縣</t>
-    <rPh sb="0" eb="1">
-      <t>chang'p</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昌平縣亦層歸屬廣陽郡，根據原文按上谷郡。</t>
-    <rPh sb="0" eb="1">
-      <t>chang'ping</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xina</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ceng</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gui'shu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>guagn'yang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jun</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>yuan'we</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>an</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>shagn'gu'jun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樊宏字靡卿，南陽湖陽人也，世祖之舅。其先周仲山甫，封于樊，因而氏焉，為鄉里著姓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樊宏</t>
-  </si>
-  <si>
-    <t>32,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖陽縣</t>
-    <rPh sb="2" eb="3">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韓棱字伯師，潁川舞陽人，弓高侯穨當之後也。世為鄉里著姓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韓棱</t>
-  </si>
-  <si>
-    <t>45,35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潁川郡</t>
-    <rPh sb="0" eb="1">
-      <t>ying'chuan'jun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舞陽縣</t>
-    <rPh sb="0" eb="1">
-      <t>wu'yang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張衡字平子，南陽西鄂人也。世為著姓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張衡</t>
-  </si>
-  <si>
-    <t>59,49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西鄂縣</t>
-    <rPh sb="2" eb="3">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62,52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鍾皓字季明，潁川長社人也。為郡著姓，世善刑律。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鍾皓</t>
-  </si>
-  <si>
-    <t>長社縣</t>
-    <rPh sb="2" eb="3">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83,73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京兆尹</t>
-    <rPh sb="0" eb="1">
-      <t>jing'zhao'yin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霸陵縣</t>
-    <rPh sb="0" eb="1">
-      <t>ba'ling</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韓康字伯休，一名恬休，京兆霸陵人。家世著姓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韓康</t>
-  </si>
-  <si>
-    <t>鄧晨字偉卿，南陽新野人也。世吏二千石。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄧晨</t>
-  </si>
-  <si>
-    <t>新野縣</t>
-    <rPh sb="0" eb="1">
-      <t>xin'ye'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世吏二千石</t>
-    <rPh sb="4" eb="5">
-      <t>shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魯恭字仲康，扶風平陵人也。其先出於魯（傾）〔頃〕公，其先出於魯（傾）〔頃〕公　按：校補謂「傾」乃「頃」之誤，史記魯世家可證。今據改。為楚所滅，遷於下邑，因氏焉。世吏二千石，哀平閒，自魯而徙。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魯恭</t>
-  </si>
-  <si>
-    <t>平陵縣</t>
-    <rPh sb="0" eb="1">
-      <t>ping'ling</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55,45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>濟北惠王壽，母申貴人，潁川人也，世吏二千石。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申貴人</t>
-  </si>
-  <si>
-    <t>78,68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹節</t>
-  </si>
-  <si>
-    <t>曹節字漢豐，南陽新野人也。其本魏郡人，世吏二千石。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張堪字君游，南陽宛人也，為郡族姓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張堪</t>
-  </si>
-  <si>
-    <t>族姓</t>
-  </si>
-  <si>
-    <t>31,21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>馮魴字孝孫，南陽湖陽人也。其先魏之支別，食菜馮城，因以氏焉。秦滅魏，遷于湖陽，為郡族姓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>馮魴</t>
-  </si>
-  <si>
-    <t>33,23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陸續字智初，會稽吳人也。世為族姓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陸續</t>
-  </si>
-  <si>
-    <t>會稽郡</t>
-    <rPh sb="2" eb="3">
-      <t>jun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81,71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮年少有才能，頗欲厲風迹，收士心，辟召州中名宿涿郡王岑之屬，以為從事，[二]岑後為梁州牧。及王莽時故吏二千石，皆引置幕府，乃多發諸郡倉穀，稟贍其妻子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王岑</t>
-  </si>
-  <si>
-    <t>名宿</t>
   </si>
   <si>
     <r>
@@ -2371,16 +2378,16 @@
     <r>
       <rPr>
         <b/>
-        <sz val="16"/>
-        <color rgb="FFEA0000"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Siyuansong"/>
       </rPr>
       <t>公族</t>
     </r>
     <r>
       <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Siyuansong"/>
       </rPr>
       <t>，聞道漸訓。」</t>
@@ -2388,43 +2395,240 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>袁閎</t>
-  </si>
-  <si>
-    <t>公族</t>
-  </si>
-  <si>
-    <t>ClanID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琬竟坐免。卓猶敬其名德舊族，不敢害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃琬</t>
+    <t>汝南袁氏</t>
     <rPh sb="0" eb="1">
-      <t>haugn</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61,51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonalID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舊族</t>
+      <t>ru'nan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汝南袁氏</t>
+    <rPh sb="0" eb="1">
+      <t>ru'nan'yuan'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乃與趙國大豪李育、張參等通謀，規共立郎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李育</t>
+  </si>
+  <si>
+    <t>張參</t>
+  </si>
+  <si>
+    <t>大豪</t>
+  </si>
+  <si>
+    <t>趙國</t>
+    <rPh sb="0" eb="1">
+      <t>zhoa'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙國</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴良字叔鸞，汝南慎陽人也……時人為之語曰：「關東大豪戴子高。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慎陽縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴良</t>
+  </si>
+  <si>
+    <t>83,73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會詔百官舉賢良方正，恭薦中牟名士王方，帝即徵方詣公車，禮之與公卿所舉同，方致位侍中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王方</t>
+  </si>
+  <si>
+    <t>25,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司隸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中牟縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名士</t>
+  </si>
+  <si>
+    <t>詩雅好推賢，數進知名士清河劉統及魯陽長董崇等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉統</t>
+  </si>
+  <si>
+    <t>清河國</t>
+    <rPh sb="0" eb="1">
+      <t>qing'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董崇</t>
+  </si>
+  <si>
+    <t>南陽郡</t>
+    <rPh sb="0" eb="1">
+      <t>nan'yang'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯陽縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平再遷侍中，永平三年，拜宗正，數薦達名士承宮、郇恁等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">琅玡國	13	開陽縣	開陽縣、東武縣、琅邪縣、東莞縣、西海縣、諸縣、莒縣、東安縣、陽都縣、臨沂縣、即丘國、繒國、姑幕縣		</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琅玡國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姑幕縣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承宮</t>
+  </si>
+  <si>
+    <t>郇恁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,30</t>
+  </si>
+  <si>
+    <t>崔駰</t>
+  </si>
+  <si>
+    <t>52,42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涿郡</t>
+    <rPh sb="0" eb="1">
+      <t>zhuo'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安平縣</t>
+    <rPh sb="0" eb="1">
+      <t>an'ping'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>程夫人於傍應曰：「崔公冀州</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFEA0000"/>
+        <rFont val="Siyuansong"/>
+      </rPr>
+      <t>名士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Siyuansong"/>
+      </rPr>
+      <t>，豈肯買官？賴我得是，反不知姝邪！」</t>
+    </r>
+  </si>
+  <si>
+    <t>太原郡</t>
+    <rPh sb="0" eb="1">
+      <t>tai'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時會者四方名士郭林宗等數十人，聞之，疑其稺也，乃選能言語生茅容輕騎追之。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林宗</t>
+  </si>
+  <si>
+    <t>界休縣</t>
+    <rPh sb="0" eb="1">
+      <t>jie'xiu'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2439,11 +2643,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Siyuansong"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2464,10 +2663,22 @@
       <name val="Siyuansong"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Siyuansong"/>
+    </font>
+    <font>
       <b/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color rgb="FFEA0000"/>
       <name val="Siyuansong"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFA52A2A"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2490,8 +2701,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2769,1124 +2983,1403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="1">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="1">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="1">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="1">
+        <v>14</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="1">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I17" s="1">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I18" s="1">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I19" s="1">
+        <v>19</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I20" s="1">
+        <v>20</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I21" s="1">
+        <v>21</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I22" s="1">
+        <v>22</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I23" s="1">
+        <v>23</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I24" s="1">
+        <v>24</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I25" s="1">
+        <v>25</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I26" s="1">
+        <v>26</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I27" s="1">
+        <v>27</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I28" s="1">
+        <v>28</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I29" s="1">
+        <v>29</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I30" s="1">
+        <v>30</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="I31" s="1">
+        <v>31</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="I32" s="1">
+        <v>32</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="I33" s="1">
+        <v>33</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="I34" s="1">
+        <v>34</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H35" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="I35" s="1">
+        <v>8</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="I36" s="1">
+        <v>12</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="I37" s="1">
+        <v>35</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="I38" s="1">
+        <v>36</v>
+      </c>
+      <c r="J38" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2">
+      <c r="C39" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="I39" s="1">
+        <v>37</v>
+      </c>
+      <c r="J39" s="1">
         <v>1</v>
       </c>
-      <c r="J2">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="I40" s="1">
+        <v>38</v>
+      </c>
+      <c r="J40" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3">
+      <c r="C41" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="I41" s="1">
+        <v>39</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="C42" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="I42" s="1">
+        <v>40</v>
+      </c>
+      <c r="J42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>655</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
+      <c r="C43" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="I43" s="1">
+        <v>41</v>
+      </c>
+      <c r="J43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>656</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>538</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
+      <c r="C44" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="I44" s="1">
+        <v>42</v>
+      </c>
+      <c r="J44" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="45" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
+      <c r="C45" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D45" t="s">
+        <v>660</v>
+      </c>
+      <c r="E45" t="s">
+        <v>661</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="I45" s="1">
+        <v>43</v>
+      </c>
+      <c r="J45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>665</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7">
+      <c r="C46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="I46" s="1">
+        <v>44</v>
+      </c>
+      <c r="J46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-      <c r="J8">
+      <c r="I47" s="1">
+        <v>45</v>
+      </c>
+      <c r="J47" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" t="s">
-        <v>539</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10">
-        <v>9</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I48" s="1">
         <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12">
-        <v>11</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" t="s">
-        <v>532</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>262</v>
-      </c>
-      <c r="E14" t="s">
-        <v>534</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14">
-        <v>13</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>262</v>
-      </c>
-      <c r="E15" t="s">
-        <v>535</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15">
-        <v>14</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>536</v>
-      </c>
-      <c r="E16" t="s">
-        <v>537</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16">
-        <v>15</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>541</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>547</v>
-      </c>
-      <c r="D17" t="s">
-        <v>542</v>
-      </c>
-      <c r="E17" t="s">
-        <v>543</v>
-      </c>
-      <c r="F17" t="s">
-        <v>540</v>
-      </c>
-      <c r="H17" t="s">
-        <v>544</v>
-      </c>
-      <c r="I17">
-        <v>16</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>546</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>548</v>
-      </c>
-      <c r="D18" t="s">
-        <v>550</v>
-      </c>
-      <c r="E18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H18" t="s">
-        <v>549</v>
-      </c>
-      <c r="I18">
-        <v>17</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>551</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>552</v>
-      </c>
-      <c r="D19" t="s">
-        <v>553</v>
-      </c>
-      <c r="F19" t="s">
-        <v>554</v>
-      </c>
-      <c r="H19" t="s">
-        <v>555</v>
-      </c>
-      <c r="I19">
-        <v>18</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>559</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>564</v>
-      </c>
-      <c r="D20" t="s">
-        <v>556</v>
-      </c>
-      <c r="E20" t="s">
-        <v>557</v>
-      </c>
-      <c r="F20" t="s">
-        <v>558</v>
-      </c>
-      <c r="H20" t="s">
-        <v>560</v>
-      </c>
-      <c r="I20">
-        <v>19</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>562</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>563</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" t="s">
-        <v>561</v>
-      </c>
-      <c r="H21" t="s">
-        <v>560</v>
-      </c>
-      <c r="I21">
-        <v>20</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>566</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>567</v>
-      </c>
-      <c r="D22" t="s">
-        <v>568</v>
-      </c>
-      <c r="E22" t="s">
-        <v>569</v>
-      </c>
-      <c r="F22" t="s">
-        <v>565</v>
-      </c>
-      <c r="G22" t="s">
-        <v>570</v>
-      </c>
-      <c r="H22" t="s">
-        <v>560</v>
-      </c>
-      <c r="I22">
-        <v>21</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>572</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>573</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" t="s">
-        <v>574</v>
-      </c>
-      <c r="F23" t="s">
-        <v>571</v>
-      </c>
-      <c r="H23" t="s">
-        <v>560</v>
-      </c>
-      <c r="I23">
-        <v>22</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>576</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>577</v>
-      </c>
-      <c r="D24" t="s">
-        <v>578</v>
-      </c>
-      <c r="E24" t="s">
-        <v>579</v>
-      </c>
-      <c r="F24" t="s">
-        <v>575</v>
-      </c>
-      <c r="H24" t="s">
-        <v>560</v>
-      </c>
-      <c r="I24">
-        <v>23</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>581</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>582</v>
-      </c>
-      <c r="D25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" t="s">
-        <v>583</v>
-      </c>
-      <c r="F25" t="s">
-        <v>580</v>
-      </c>
-      <c r="H25" t="s">
-        <v>560</v>
-      </c>
-      <c r="I25">
-        <v>24</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>586</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>584</v>
-      </c>
-      <c r="D26" t="s">
-        <v>578</v>
-      </c>
-      <c r="E26" t="s">
-        <v>587</v>
-      </c>
-      <c r="F26" t="s">
-        <v>585</v>
-      </c>
-      <c r="H26" t="s">
-        <v>560</v>
-      </c>
-      <c r="I26">
-        <v>25</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>592</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>588</v>
-      </c>
-      <c r="D27" t="s">
-        <v>589</v>
-      </c>
-      <c r="E27" t="s">
-        <v>590</v>
-      </c>
-      <c r="F27" t="s">
-        <v>591</v>
-      </c>
-      <c r="H27" t="s">
-        <v>560</v>
-      </c>
-      <c r="I27">
-        <v>26</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>594</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>563</v>
-      </c>
-      <c r="D28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" t="s">
-        <v>595</v>
-      </c>
-      <c r="F28" t="s">
-        <v>593</v>
-      </c>
-      <c r="H28" t="s">
-        <v>596</v>
-      </c>
-      <c r="I28">
-        <v>27</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>598</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>600</v>
-      </c>
-      <c r="D29" t="s">
-        <v>550</v>
-      </c>
-      <c r="E29" t="s">
-        <v>599</v>
-      </c>
-      <c r="F29" t="s">
-        <v>597</v>
-      </c>
-      <c r="H29" t="s">
-        <v>596</v>
-      </c>
-      <c r="I29">
-        <v>28</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>603</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>601</v>
-      </c>
-      <c r="D30" t="s">
-        <v>578</v>
-      </c>
-      <c r="F30" t="s">
-        <v>602</v>
-      </c>
-      <c r="H30" t="s">
-        <v>596</v>
-      </c>
-      <c r="I30">
-        <v>29</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>605</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>604</v>
-      </c>
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" t="s">
-        <v>595</v>
-      </c>
-      <c r="F31" t="s">
-        <v>606</v>
-      </c>
-      <c r="H31" t="s">
-        <v>596</v>
-      </c>
-      <c r="I31">
-        <v>30</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>608</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>610</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" t="s">
-        <v>607</v>
-      </c>
-      <c r="H32" t="s">
-        <v>609</v>
-      </c>
-      <c r="I32">
-        <v>31</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>612</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>613</v>
-      </c>
-      <c r="D33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" t="s">
-        <v>574</v>
-      </c>
-      <c r="F33" t="s">
-        <v>611</v>
-      </c>
-      <c r="H33" t="s">
-        <v>609</v>
-      </c>
-      <c r="I33">
-        <v>32</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>615</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>617</v>
-      </c>
-      <c r="D34" t="s">
-        <v>616</v>
-      </c>
-      <c r="F34" t="s">
-        <v>614</v>
-      </c>
-      <c r="H34" t="s">
-        <v>609</v>
-      </c>
-      <c r="I34">
-        <v>33</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>619</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>613</v>
-      </c>
-      <c r="D35" t="s">
-        <v>279</v>
-      </c>
-      <c r="F35" t="s">
-        <v>618</v>
-      </c>
-      <c r="H35" t="s">
-        <v>620</v>
-      </c>
-      <c r="I35">
-        <v>34</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>622</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" t="s">
-        <v>621</v>
-      </c>
-      <c r="H36" t="s">
-        <v>623</v>
-      </c>
-      <c r="I36">
-        <v>8</v>
-      </c>
-      <c r="J36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>626</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>627</v>
-      </c>
-      <c r="D37" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" t="s">
-        <v>532</v>
-      </c>
-      <c r="F37" t="s">
-        <v>625</v>
-      </c>
-      <c r="H37" t="s">
-        <v>629</v>
-      </c>
-      <c r="I37">
-        <v>12</v>
-      </c>
-      <c r="J37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5522,8 +6015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A114"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5700,397 +6193,397 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>454</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/CSV/豪族统计表.xlsx
+++ b/CSV/豪族统计表.xlsx
@@ -29,13 +29,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="753">
   <si>
     <t>引文</t>
     <rPh sb="0" eb="1">
       <t>yin'wen</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>朱暉</t>
@@ -45,37 +45,37 @@
     <rPh sb="0" eb="1">
       <t>hou'han's</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>朱暉字文季，南陽宛人也。家世衣冠 。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>宛</t>
   </si>
   <si>
     <t>郭躬字仲孫，潁川陽翟人也。家世衣冠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>郭躬</t>
   </si>
   <si>
     <t>46,36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>43,33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>尹勳字伯元，河南鞏人也。家世衣冠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>67,57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>尹勳</t>
@@ -85,28 +85,28 @@
     <rPh sb="0" eb="1">
       <t>fu'yan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>章節</t>
     <rPh sb="0" eb="1">
       <t>zhang'jie</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>來源</t>
     <rPh sb="0" eb="1">
       <t>lai'yaun</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
     <rPh sb="0" eb="1">
       <t>ming'zi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>魏郡</t>
@@ -116,25 +116,25 @@
     <rPh sb="0" eb="1">
       <t>wei'jun</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>霍谞</t>
   </si>
   <si>
     <t>48,38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>王渙</t>
   </si>
   <si>
     <t>76,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>明知法令，歷代衣冠，從溫補洛陽令，化行致賢。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>來自夾註。</t>
@@ -147,7 +147,7 @@
     <rPh sb="3" eb="4">
       <t>zhu'jie</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>宋光未查到籍貫，按霍谞。</t>
@@ -166,36 +166,36 @@
     <rPh sb="8" eb="9">
       <t>an'zhao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>19,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>耿弇，字伯昭，扶風茂陵人也...于时衣冠盛门坐纪罹祸灭者众矣。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>耿弇</t>
   </si>
   <si>
     <t>28,18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>馮衍</t>
     <rPh sb="0" eb="1">
       <t>feng'ayn</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>馮衍 字敬通，京兆杜陵人也。「注：衍以室家紛然之故，捐棄衣冠，側身山野，絕交游之路，杜仕宦之門，闔門不出，心專耕耘，以求衣食，何敢有功名之路哉！」</t>
     <rPh sb="15" eb="16">
       <t>zhu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>檢索詞</t>
@@ -205,18 +205,18 @@
     <rPh sb="2" eb="3">
       <t>ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>衣冠</t>
     <rPh sb="0" eb="1">
       <t>yi'guan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>74,64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>袁紹</t>
@@ -226,7 +226,7 @@
   </si>
   <si>
     <t>37,27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>吳郡</t>
@@ -236,7 +236,7 @@
     <rPh sb="1" eb="2">
       <t>zhu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>冠族</t>
@@ -246,14 +246,14 @@
     <rPh sb="1" eb="2">
       <t>zu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>韋著</t>
   </si>
   <si>
     <t>53,43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>京兆尹</t>
@@ -263,25 +263,25 @@
     <rPh sb="0" eb="1">
       <t>jign'zhao'yin</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>京兆韋著、[五]著見韋彪傳。謝承書曰：「為三輔冠族。著少修節操，持京氏易、韓詩，博通術蓺。」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>羊陟</t>
   </si>
   <si>
     <t>羊陟字嗣祖，太山梁父人也。家世冠族。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>黃香</t>
   </si>
   <si>
     <t>80,70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>來自夾註。</t>
@@ -294,22 +294,22 @@
     <rPh sb="3" eb="4">
       <t>zhu'jie</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>黃香字文彊，江夏安陸人也……「注：謝承書謝承書　按：「承」原譌「丞」，逕據汲本改正。：「香代為冠族，葉令況之子也。」」</t>
     <rPh sb="15" eb="16">
       <t>zhu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>賈淑字子厚，林宗鄉人也。雖世有冠冕，而性險害，邑里患之。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>68,58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>賈淑</t>
@@ -319,25 +319,25 @@
     <rPh sb="0" eb="1">
       <t>guan'mian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>王允字子師，太原祁人也。世仕州郡為冠蓋。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>冠蓋</t>
   </si>
   <si>
     <t>66,56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>王允</t>
   </si>
   <si>
     <t>陽球字方正，漁陽泉州人也。家世大姓冠蓋。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>陽球</t>
@@ -350,7 +350,7 @@
     <rPh sb="3" eb="4">
       <t>xian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>籍貫（郡）</t>
@@ -360,14 +360,14 @@
     <rPh sb="3" eb="4">
       <t>jun</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>南陽郡</t>
     <rPh sb="0" eb="1">
       <t>nan'yang'jun</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>颍川郡</t>
@@ -380,14 +380,14 @@
     <rPh sb="0" eb="1">
       <t>he'nan'yin</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>宛縣</t>
     <rPh sb="1" eb="2">
       <t>xian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>陽翟縣</t>
@@ -397,35 +397,35 @@
     <rPh sb="2" eb="3">
       <t>xian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>鞏縣</t>
     <rPh sb="1" eb="2">
       <t>xian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>廣漢縣</t>
     <rPh sb="2" eb="3">
       <t>xian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>廣漢郡</t>
     <rPh sb="2" eb="3">
       <t>jun</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>右扶風</t>
     <rPh sb="0" eb="1">
       <t>you'fu'feng</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>汝南郡</t>
@@ -435,7 +435,7 @@
     <rPh sb="0" eb="1">
       <t>ru'nan'jun</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>茂陵縣</t>
@@ -445,21 +445,21 @@
     <rPh sb="2" eb="3">
       <t>xian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>杜陵縣</t>
     <rPh sb="2" eb="3">
       <t>xian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>汝陽縣</t>
     <rPh sb="2" eb="3">
       <t>xian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>梁甫國</t>
@@ -469,7 +469,7 @@
     <rPh sb="2" eb="3">
       <t>guo</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>泰山郡</t>
@@ -479,7 +479,7 @@
     <rPh sb="0" eb="1">
       <t>tai'shan'jun</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>州名</t>
@@ -1830,7 +1830,7 @@
   </si>
   <si>
     <t xml:space="preserve">江夏郡	14	西陵縣	西陵縣、西陽縣、軑國、鄳縣、竟陵國、雲杜縣、沙羡縣、邾縣、下雉縣、蘄春國、鄂縣、平春國、南新市國、安陸縣		</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>安陸縣</t>
@@ -1840,15 +1840,15 @@
     <rPh sb="2" eb="3">
       <t>xian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">太原郡	16	晉陽	晉陽縣、界休縣、榆次縣、中都縣、於離縣、茲氏縣、狼孟縣、鄔縣、盂縣、平陶縣、京陵縣、陽曲縣、大陵縣、祁縣、慮虒縣、陽邑		</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>界休縣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>祁縣</t>
@@ -1858,14 +1858,14 @@
     <rPh sb="1" eb="2">
       <t>xian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>漁陽郡</t>
     <rPh sb="0" eb="1">
       <t>yu'yang'jun</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>泉州縣</t>
@@ -1875,7 +1875,760 @@
     <rPh sb="2" eb="3">
       <t>xina</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王龔字伯宗，山陽高平人也。世為豪族 。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王龔</t>
+  </si>
+  <si>
+    <t>山陽郡</t>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高平國</t>
+    <rPh sb="0" eb="1">
+      <t>gao'ping</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪族</t>
+  </si>
+  <si>
+    <t>融外戚豪家，多列女倡歌舞於前。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬融</t>
+    <rPh sb="0" eb="1">
+      <t>ma</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>rong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56,46</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>64,54</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪家</t>
+    <rPh sb="0" eb="1">
+      <t>hao'jia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右扶風</t>
+    <rPh sb="0" eb="1">
+      <t>you'fu'f</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常山國</t>
+    <rPh sb="0" eb="1">
+      <t>chang'shan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真定縣</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光武郭皇后諱聖通，真定槀人也。為郡著姓。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭皇后</t>
+  </si>
+  <si>
+    <t>著姓</t>
+  </si>
+  <si>
+    <t>李通字次元，南陽宛人也。世以貨殖著姓。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李通</t>
+  </si>
+  <si>
+    <t>15,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寇恂</t>
+  </si>
+  <si>
+    <t>16,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上谷郡</t>
+    <rPh sb="0" eb="1">
+      <t>shang'gu'jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌平縣</t>
+    <rPh sb="0" eb="1">
+      <t>chang'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌平縣亦層歸屬廣陽郡，根據原文按上谷郡。</t>
+    <rPh sb="0" eb="1">
+      <t>chang'ping</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xina</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ceng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gui'shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guagn'yang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jun</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yuan'we</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>an</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shagn'gu'jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊宏字靡卿，南陽湖陽人也，世祖之舅。其先周仲山甫，封于樊，因而氏焉，為鄉里著姓。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊宏</t>
+  </si>
+  <si>
+    <t>32,22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖陽縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓棱字伯師，潁川舞陽人，弓高侯穨當之後也。世為鄉里著姓。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓棱</t>
+  </si>
+  <si>
+    <t>45,35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潁川郡</t>
+    <rPh sb="0" eb="1">
+      <t>ying'chuan'jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞陽縣</t>
+    <rPh sb="0" eb="1">
+      <t>wu'yang'xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>張衡字平子，南陽西鄂人也。世為著姓。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>張衡</t>
+  </si>
+  <si>
+    <t>59,49</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西鄂縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>62,52</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍾皓字季明，潁川長社人也。為郡著姓，世善刑律。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍾皓</t>
+  </si>
+  <si>
+    <t>長社縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,73</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>京兆尹</t>
+    <rPh sb="0" eb="1">
+      <t>jing'zhao'yin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸陵縣</t>
+    <rPh sb="0" eb="1">
+      <t>ba'ling</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓康字伯休，一名恬休，京兆霸陵人。家世著姓。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓康</t>
+  </si>
+  <si>
+    <t>鄧晨字偉卿，南陽新野人也。世吏二千石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄧晨</t>
+  </si>
+  <si>
+    <t>新野縣</t>
+    <rPh sb="0" eb="1">
+      <t>xin'ye'xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世吏二千石</t>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯恭字仲康，扶風平陵人也。其先出於魯（傾）〔頃〕公，其先出於魯（傾）〔頃〕公　按：校補謂「傾」乃「頃」之誤，史記魯世家可證。今據改。為楚所滅，遷於下邑，因氏焉。世吏二千石，哀平閒，自魯而徙。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯恭</t>
+  </si>
+  <si>
+    <t>平陵縣</t>
+    <rPh sb="0" eb="1">
+      <t>ping'ling</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>濟北惠王壽，母申貴人，潁川人也，世吏二千石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申貴人</t>
+  </si>
+  <si>
+    <t>78,68</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹節</t>
+  </si>
+  <si>
+    <t>曹節字漢豐，南陽新野人也。其本魏郡人，世吏二千石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>張堪字君游，南陽宛人也，為郡族姓。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>張堪</t>
+  </si>
+  <si>
+    <t>族姓</t>
+  </si>
+  <si>
+    <t>31,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>馮魴字孝孫，南陽湖陽人也。其先魏之支別，食菜馮城，因以氏焉。秦滅魏，遷于湖陽，為郡族姓。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>馮魴</t>
+  </si>
+  <si>
+    <t>33,23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸續字智初，會稽吳人也。世為族姓。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸續</t>
+  </si>
+  <si>
+    <t>會稽郡</t>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>81,71</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮年少有才能，頗欲厲風迹，收士心，辟召州中名宿涿郡王岑之屬，以為從事，[二]岑後為梁州牧。及王莽時故吏二千石，皆引置幕府，乃多發諸郡倉穀，稟贍其妻子。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岑</t>
+  </si>
+  <si>
+    <t>名宿</t>
+  </si>
+  <si>
+    <t>袁閎</t>
+  </si>
+  <si>
+    <t>公族</t>
+  </si>
+  <si>
+    <t>ClanID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>琬竟坐免。卓猶敬其名德舊族，不敢害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃琬</t>
+    <rPh sb="0" eb="1">
+      <t>haugn</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>61,51</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonalID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舊族</t>
+  </si>
+  <si>
+    <t>汝南袁氏</t>
+    <rPh sb="0" eb="1">
+      <t>ru'nan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汝南袁氏</t>
+    <rPh sb="0" eb="1">
+      <t>ru'nan'yuan'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乃與趙國大豪李育、張參等通謀，規共立郎。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李育</t>
+  </si>
+  <si>
+    <t>張參</t>
+  </si>
+  <si>
+    <t>大豪</t>
+  </si>
+  <si>
+    <t>趙國</t>
+    <rPh sb="0" eb="1">
+      <t>zhoa'guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙國</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴良字叔鸞，汝南慎陽人也……時人為之語曰：「關東大豪戴子高。」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>慎陽縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴良</t>
+  </si>
+  <si>
+    <t>83,73</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>會詔百官舉賢良方正，恭薦中牟名士王方，帝即徵方詣公車，禮之與公卿所舉同，方致位侍中。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王方</t>
+  </si>
+  <si>
+    <t>25,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>司隸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中牟縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名士</t>
+  </si>
+  <si>
+    <t>詩雅好推賢，數進知名士清河劉統及魯陽長董崇等。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉統</t>
+  </si>
+  <si>
+    <t>清河國</t>
+    <rPh sb="0" eb="1">
+      <t>qing'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>董崇</t>
+  </si>
+  <si>
+    <t>南陽郡</t>
+    <rPh sb="0" eb="1">
+      <t>nan'yang'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯陽縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平再遷侍中，永平三年，拜宗正，數薦達名士承宮、郇恁等。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">琅玡國	13	開陽縣	開陽縣、東武縣、琅邪縣、東莞縣、西海縣、諸縣、莒縣、東安縣、陽都縣、臨沂縣、即丘國、繒國、姑幕縣		</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>琅玡國</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姑幕縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>承宮</t>
+  </si>
+  <si>
+    <t>郇恁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,30</t>
+  </si>
+  <si>
+    <t>崔駰</t>
+  </si>
+  <si>
+    <t>52,42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涿郡</t>
+    <rPh sb="0" eb="1">
+      <t>zhuo'jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安平縣</t>
+    <rPh sb="0" eb="1">
+      <t>an'ping'xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太原郡</t>
+    <rPh sb="0" eb="1">
+      <t>tai'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時會者四方名士郭林宗等數十人，聞之，疑其稺也，乃選能言語生茅容輕騎追之。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林宗</t>
+  </si>
+  <si>
+    <t>界休縣</t>
+    <rPh sb="0" eb="1">
+      <t>jie'xiu'xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自是盧芳城邑稍稍來降，涼誅其豪右郇氏之屬，鎮撫羸弱，旬月閒鴈門且平，芳遂亡入匈奴。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郇氏</t>
+  </si>
+  <si>
+    <t>22,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鴈門郡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪右</t>
+  </si>
+  <si>
+    <t>豪右</t>
+    <rPh sb="0" eb="1">
+      <t>hao'you</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勤同縣馮巡等舉兵應光武，謀未成而為豪右焦廉等所反。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦廉</t>
+  </si>
+  <si>
+    <t>繁陽縣</t>
+    <rPh sb="0" eb="1">
+      <t>fan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiain</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隗崔</t>
+  </si>
+  <si>
+    <t>豪俠</t>
+  </si>
+  <si>
+    <t>13,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天水郡</t>
+    <rPh sb="0" eb="1">
+      <t>tian'shui'jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成紀縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵字子春，霸陵人也。父為上郡太守。遵少豪俠，有才辯，雖與囂舉兵，而常有歸漢意。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王遵</t>
+  </si>
+  <si>
+    <t>京兆尹</t>
+    <rPh sb="0" eb="1">
+      <t>jing'zhao'y</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸陵縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竇融始以豪俠為名，拔起風塵之中。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竇融</t>
+  </si>
+  <si>
+    <t>杜季良豪俠好義，憂人之憂，樂人之樂。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜季良</t>
+  </si>
+  <si>
+    <t>24,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子碩，豪俠，以貨殖聞。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜陵縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜碩</t>
   </si>
   <si>
     <r>
@@ -1885,19 +2638,12 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>衣冠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Siyuansong"/>
-      </rPr>
-      <t>子孙，径路平易</t>
+      <t>衣冠子孙，径路平易</t>
     </r>
   </si>
   <si>
@@ -1909,7 +2655,10 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Siyuansong"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>衣冠</t>
     </r>
@@ -1917,436 +2666,14 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Siyuansong"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>在州內者，身自扞衞，送到斥丘。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王龔字伯宗，山陽高平人也。世為豪族 。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王龔</t>
-  </si>
-  <si>
-    <t>山陽郡</t>
-    <rPh sb="2" eb="3">
-      <t>jun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高平國</t>
-    <rPh sb="0" eb="1">
-      <t>gao'ping</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪族</t>
-  </si>
-  <si>
-    <t>融外戚豪家，多列女倡歌舞於前。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>馬融</t>
-    <rPh sb="0" eb="1">
-      <t>ma</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>rong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56,46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64,54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪家</t>
-    <rPh sb="0" eb="1">
-      <t>hao'jia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右扶風</t>
-    <rPh sb="0" eb="1">
-      <t>you'fu'f</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常山國</t>
-    <rPh sb="0" eb="1">
-      <t>chang'shan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真定縣</t>
-    <rPh sb="0" eb="1">
-      <t>zhen'ding</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光武郭皇后諱聖通，真定槀人也。為郡著姓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭皇后</t>
-  </si>
-  <si>
-    <t>著姓</t>
-  </si>
-  <si>
-    <t>李通字次元，南陽宛人也。世以貨殖著姓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李通</t>
-  </si>
-  <si>
-    <t>15,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寇恂</t>
-  </si>
-  <si>
-    <t>16,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上谷郡</t>
-    <rPh sb="0" eb="1">
-      <t>shang'gu'jun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昌平縣</t>
-    <rPh sb="0" eb="1">
-      <t>chang'p</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昌平縣亦層歸屬廣陽郡，根據原文按上谷郡。</t>
-    <rPh sb="0" eb="1">
-      <t>chang'ping</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xina</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ceng</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gui'shu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>guagn'yang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jun</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>yuan'we</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>an</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>shagn'gu'jun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樊宏字靡卿，南陽湖陽人也，世祖之舅。其先周仲山甫，封于樊，因而氏焉，為鄉里著姓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樊宏</t>
-  </si>
-  <si>
-    <t>32,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖陽縣</t>
-    <rPh sb="2" eb="3">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韓棱字伯師，潁川舞陽人，弓高侯穨當之後也。世為鄉里著姓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韓棱</t>
-  </si>
-  <si>
-    <t>45,35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潁川郡</t>
-    <rPh sb="0" eb="1">
-      <t>ying'chuan'jun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舞陽縣</t>
-    <rPh sb="0" eb="1">
-      <t>wu'yang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張衡字平子，南陽西鄂人也。世為著姓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張衡</t>
-  </si>
-  <si>
-    <t>59,49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西鄂縣</t>
-    <rPh sb="2" eb="3">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62,52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鍾皓字季明，潁川長社人也。為郡著姓，世善刑律。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鍾皓</t>
-  </si>
-  <si>
-    <t>長社縣</t>
-    <rPh sb="2" eb="3">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83,73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京兆尹</t>
-    <rPh sb="0" eb="1">
-      <t>jing'zhao'yin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霸陵縣</t>
-    <rPh sb="0" eb="1">
-      <t>ba'ling</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韓康字伯休，一名恬休，京兆霸陵人。家世著姓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韓康</t>
-  </si>
-  <si>
-    <t>鄧晨字偉卿，南陽新野人也。世吏二千石。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄧晨</t>
-  </si>
-  <si>
-    <t>新野縣</t>
-    <rPh sb="0" eb="1">
-      <t>xin'ye'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世吏二千石</t>
-    <rPh sb="4" eb="5">
-      <t>shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魯恭字仲康，扶風平陵人也。其先出於魯（傾）〔頃〕公，其先出於魯（傾）〔頃〕公　按：校補謂「傾」乃「頃」之誤，史記魯世家可證。今據改。為楚所滅，遷於下邑，因氏焉。世吏二千石，哀平閒，自魯而徙。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魯恭</t>
-  </si>
-  <si>
-    <t>平陵縣</t>
-    <rPh sb="0" eb="1">
-      <t>ping'ling</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55,45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>濟北惠王壽，母申貴人，潁川人也，世吏二千石。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申貴人</t>
-  </si>
-  <si>
-    <t>78,68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹節</t>
-  </si>
-  <si>
-    <t>曹節字漢豐，南陽新野人也。其本魏郡人，世吏二千石。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張堪字君游，南陽宛人也，為郡族姓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張堪</t>
-  </si>
-  <si>
-    <t>族姓</t>
-  </si>
-  <si>
-    <t>31,21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>馮魴字孝孫，南陽湖陽人也。其先魏之支別，食菜馮城，因以氏焉。秦滅魏，遷于湖陽，為郡族姓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>馮魴</t>
-  </si>
-  <si>
-    <t>33,23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陸續字智初，會稽吳人也。世為族姓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陸續</t>
-  </si>
-  <si>
-    <t>會稽郡</t>
-    <rPh sb="2" eb="3">
-      <t>jun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81,71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮年少有才能，頗欲厲風迹，收士心，辟召州中名宿涿郡王岑之屬，以為從事，[二]岑後為梁州牧。及王莽時故吏二千石，皆引置幕府，乃多發諸郡倉穀，稟贍其妻子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王岑</t>
-  </si>
-  <si>
-    <t>名宿</t>
-  </si>
-  <si>
-    <t>袁閎</t>
-  </si>
-  <si>
-    <t>公族</t>
-  </si>
-  <si>
-    <t>ClanID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琬竟坐免。卓猶敬其名德舊族，不敢害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃琬</t>
-    <rPh sb="0" eb="1">
-      <t>haugn</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61,51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonalID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舊族</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2357,7 +2684,10 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Siyuansong"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>著姓</t>
     </r>
@@ -2365,11 +2695,14 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Siyuansong"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2380,7 +2713,10 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Siyuansong"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>公族</t>
     </r>
@@ -2388,194 +2724,14 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Siyuansong"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>，聞道漸訓。」</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汝南袁氏</t>
-    <rPh sb="0" eb="1">
-      <t>ru'nan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yuan'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汝南袁氏</t>
-    <rPh sb="0" eb="1">
-      <t>ru'nan'yuan'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乃與趙國大豪李育、張參等通謀，規共立郎。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李育</t>
-  </si>
-  <si>
-    <t>張參</t>
-  </si>
-  <si>
-    <t>大豪</t>
-  </si>
-  <si>
-    <t>趙國</t>
-    <rPh sb="0" eb="1">
-      <t>zhoa'guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趙國</t>
-    <rPh sb="0" eb="1">
-      <t>zhao'guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戴良字叔鸞，汝南慎陽人也……時人為之語曰：「關東大豪戴子高。」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>慎陽縣</t>
-    <rPh sb="2" eb="3">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戴良</t>
-  </si>
-  <si>
-    <t>83,73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會詔百官舉賢良方正，恭薦中牟名士王方，帝即徵方詣公車，禮之與公卿所舉同，方致位侍中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王方</t>
-  </si>
-  <si>
-    <t>25,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司隸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中牟縣</t>
-    <rPh sb="2" eb="3">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名士</t>
-  </si>
-  <si>
-    <t>詩雅好推賢，數進知名士清河劉統及魯陽長董崇等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劉統</t>
-  </si>
-  <si>
-    <t>清河國</t>
-    <rPh sb="0" eb="1">
-      <t>qing'he</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31,21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董崇</t>
-  </si>
-  <si>
-    <t>南陽郡</t>
-    <rPh sb="0" eb="1">
-      <t>nan'yang'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魯陽縣</t>
-    <rPh sb="2" eb="3">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平再遷侍中，永平三年，拜宗正，數薦達名士承宮、郇恁等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">琅玡國	13	開陽縣	開陽縣、東武縣、琅邪縣、東莞縣、西海縣、諸縣、莒縣、東安縣、陽都縣、臨沂縣、即丘國、繒國、姑幕縣		</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琅玡國</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姑幕縣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承宮</t>
-  </si>
-  <si>
-    <t>郇恁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,30</t>
-  </si>
-  <si>
-    <t>崔駰</t>
-  </si>
-  <si>
-    <t>52,42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涿郡</t>
-    <rPh sb="0" eb="1">
-      <t>zhuo'jun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安平縣</t>
-    <rPh sb="0" eb="1">
-      <t>an'ping'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2584,51 +2740,349 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <color rgb="FFEA0000"/>
-        <rFont val="Siyuansong"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>名士</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Siyuansong"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>，豈肯買官？賴我得是，反不知姝邪！」</t>
     </r>
   </si>
   <si>
+    <r>
+      <t>季父崔，素</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>豪俠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，能得眾。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>張汜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南陽大猾張汜等，奉事中官，乘埶犯法，二郡太守劉瓆、成瑨考案其罪，雖經赦令，而並竟考殺之。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大猾</t>
+  </si>
+  <si>
+    <t>進圍鉅鹿，未下，王郎遣將攻信都，信都大姓馬寵等開城內之，收太守宗廣及忠母妻，而令親屬招呼忠。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬寵</t>
+  </si>
+  <si>
+    <t>大姓</t>
+  </si>
+  <si>
+    <t>信都縣</t>
+    <rPh sb="0" eb="1">
+      <t>xin'du'xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>軼奇之，且以其鉅鹿大姓，迺承制拜為騎都尉，授以節，令安集趙、魏。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉅鹿縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉅鹿郡</t>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信都國（廣川郡）</t>
+    <rPh sb="0" eb="1">
+      <t>xin'du'guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guang'chuan'jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿純</t>
+  </si>
+  <si>
+    <t>及至鄗，世祖止傳舍，鄗大姓蘇公反城開門內王郎將李惲。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇公</t>
+  </si>
+  <si>
+    <t>常山郡</t>
+    <rPh sb="0" eb="1">
+      <t>chang'shan'jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄗縣</t>
+    <rPh sb="1" eb="2">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更始即位，舞陰大姓李氏擁城不下，更始遣柱天將軍李寶降之，不肯，云「聞宛之趙氏有孤孫憙，信義著名，願得降之」。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞陰縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李氏</t>
+  </si>
+  <si>
+    <t>南陽郡</t>
+    <rPh sb="0" eb="1">
+      <t>nan'yang'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李子春</t>
+  </si>
+  <si>
+    <t>後拜懷令。大姓李子春先為琅邪相，豪猾并兼，為人所患，憙下車，聞其二孫殺人事未發覺，即窮詰其姦，收考子春，二孫自殺。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河內郡</t>
+    <rPh sb="0" eb="1">
+      <t>he'nei'jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>懷縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初，衍為狼孟長，以罪摧陷大姓令狐略，是時略為司空長史，讒之於尚書令王護、尚書周生豐曰：「衍所以求見者，欲毀君也。」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼孟縣</t>
+    <rPh sb="0" eb="1">
+      <t>lang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>meng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>太原郡</t>
     <rPh sb="0" eb="1">
-      <t>tai'yuan</t>
-    </rPh>
+      <t>tai'yuan'jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>令狐略</t>
+  </si>
+  <si>
+    <t>是時湖陽大姓虞都尉反城稱兵，先與同縣申屠季有仇，而殺其兄，謀滅季族。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞都尉</t>
+  </si>
+  <si>
+    <t>33,23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖陽縣</t>
+    <rPh sb="0" eb="1">
+      <t>hu'yang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時宛陵大姓羊元羣罷北海郡，臧罪狼藉，郡舍溷軒有奇巧，乃載之以歸。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊元羣</t>
+  </si>
+  <si>
+    <t>宛陵縣</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹揚郡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>既之武威，時將兵長史田紺，郡之大姓，其子弟賓客為人暴害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田紺</t>
+  </si>
+  <si>
+    <t>武威郡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到官，以大姓公孫丹為五官掾。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孫丹</t>
+  </si>
+  <si>
+    <t>77,67</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北海郡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>及至郡，誅討大姓馬適匡等。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河東郡</t>
+    <rPh sb="0" eb="1">
+      <t>he'dong'jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬適匡</t>
+  </si>
+  <si>
+    <t>時趙、魏豪右往往屯聚，清河大姓趙綱遂於縣界起塢壁，繕甲兵，為在所害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙綱</t>
+  </si>
+  <si>
+    <t>清河郡</t>
+    <rPh sb="0" eb="1">
+      <t>qing'he'jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時北海安丘大姓夏長思等反</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏長思</t>
+  </si>
+  <si>
+    <t>安丘縣</t>
+    <rPh sb="0" eb="1">
+      <t>an'qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孫述時，大姓龍、傅、尹、董氏，與郡功曹謝暹保境為漢，乃遣使從番禺江奉貢。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍、傅、尹、董氏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牂柯郡</t>
     <rPh sb="2" eb="3">
       <t>jun</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時會者四方名士郭林宗等數十人，聞之，疑其稺也，乃選能言語生茅容輕騎追之。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭林宗</t>
-  </si>
-  <si>
-    <t>界休縣</t>
-    <rPh sb="0" eb="1">
-      <t>jie'xiu'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>86,76</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2645,40 +3099,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Siyuansong"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Siyuansong"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Siyuansong"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFEA0000"/>
-      <name val="Siyuansong"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FFA52A2A"/>
-      <name val="Arial"/>
+      <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2701,11 +3128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2983,10 +3408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3017,10 +3442,10 @@
         <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3128,7 +3553,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>537</v>
+        <v>690</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>24</v>
@@ -3254,10 +3679,10 @@
         <v>77</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>538</v>
+        <v>691</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>32</v>
@@ -3483,26 +3908,26 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I17" s="1">
         <v>16</v>
@@ -3513,26 +3938,26 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I18" s="1">
         <v>17</v>
@@ -3543,26 +3968,26 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I19" s="1">
         <v>19</v>
@@ -3573,13 +3998,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>63</v>
@@ -3588,11 +4013,11 @@
         <v>67</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I20" s="1">
         <v>20</v>
@@ -3603,28 +4028,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>563</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I21" s="1">
         <v>21</v>
@@ -3635,26 +4060,26 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I22" s="1">
         <v>22</v>
@@ -3665,26 +4090,26 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I23" s="1">
         <v>23</v>
@@ -3695,26 +4120,26 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I24" s="1">
         <v>24</v>
@@ -3725,26 +4150,26 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I25" s="1">
         <v>25</v>
@@ -3755,26 +4180,26 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I26" s="1">
         <v>26</v>
@@ -3785,26 +4210,26 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I27" s="1">
         <v>27</v>
@@ -3815,26 +4240,26 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I28" s="1">
         <v>28</v>
@@ -3845,24 +4270,24 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I29" s="1">
         <v>29</v>
@@ -3873,26 +4298,26 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I30" s="1">
         <v>30</v>
@@ -3903,13 +4328,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>63</v>
@@ -3918,11 +4343,11 @@
         <v>67</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I31" s="1">
         <v>31</v>
@@ -3933,26 +4358,26 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I32" s="1">
         <v>32</v>
@@ -3963,24 +4388,24 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I33" s="1">
         <v>33</v>
@@ -3991,24 +4416,24 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>279</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I34" s="1">
         <v>34</v>
@@ -4019,7 +4444,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>2</v>
@@ -4034,13 +4459,13 @@
         <v>77</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>623</v>
+        <v>693</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I35" s="1">
         <v>8</v>
@@ -4051,13 +4476,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>182</v>
@@ -4066,11 +4491,11 @@
         <v>531</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I36" s="1">
         <v>12</v>
@@ -4081,24 +4506,24 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I37" s="1">
         <v>35</v>
@@ -4109,24 +4534,24 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I38" s="1">
         <v>36</v>
@@ -4137,26 +4562,26 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I39" s="1">
         <v>37</v>
@@ -4167,26 +4592,26 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I40" s="1">
         <v>38</v>
@@ -4197,24 +4622,24 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I41" s="1">
         <v>39</v>
@@ -4225,26 +4650,26 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I42" s="1">
         <v>40</v>
@@ -4254,26 +4679,27 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>655</v>
+      <c r="A43" s="1" t="s">
+        <v>651</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>650</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I43" s="1">
         <v>41</v>
@@ -4283,23 +4709,25 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>656</v>
+      <c r="A44" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>663</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>650</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I44" s="1">
         <v>42</v>
@@ -4308,27 +4736,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>658</v>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="D45" t="s">
-        <v>660</v>
-      </c>
-      <c r="E45" t="s">
-        <v>661</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>662</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I45" s="1">
         <v>43</v>
@@ -4338,8 +4767,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>665</v>
+      <c r="A46" s="1" t="s">
+        <v>660</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>2</v>
@@ -4348,16 +4777,17 @@
         <v>41</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>664</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I46" s="1">
         <v>44</v>
@@ -4367,9 +4797,26 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>663</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C47" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>667</v>
+      </c>
       <c r="I47" s="1">
         <v>45</v>
       </c>
@@ -4378,12 +4825,673 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>666</v>
+      </c>
       <c r="I48" s="1">
         <v>46</v>
       </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="I49" s="1">
+        <v>47</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="I50" s="1">
+        <v>48</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="I51" s="1">
+        <v>49</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="I52" s="1">
+        <v>50</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="I53" s="1">
+        <v>51</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I54" s="1">
+        <v>52</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I55" s="1">
+        <v>53</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I56" s="1">
+        <v>54</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I57" s="1">
+        <v>55</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I58" s="1">
+        <v>56</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I59" s="1">
+        <v>57</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I60" s="1">
+        <v>58</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I61" s="1">
+        <v>59</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I62" s="1">
+        <v>60</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I63" s="1">
+        <v>61</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I64" s="1">
+        <v>62</v>
+      </c>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I65" s="1">
+        <v>63</v>
+      </c>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I66" s="1">
+        <v>64</v>
+      </c>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I67" s="1">
+        <v>65</v>
+      </c>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I68" s="1">
+        <v>66</v>
+      </c>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" tooltip="颍川郡"/>
   </hyperlinks>
@@ -6005,7 +7113,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6193,7 +7301,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
@@ -6587,7 +7695,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>